--- a/8月制作内容/系统文档/【叶雯婷】追忆系统策划案.xlsx
+++ b/8月制作内容/系统文档/【叶雯婷】追忆系统策划案.xlsx
@@ -44,7 +44,7 @@
     <t>设计目的</t>
   </si>
   <si>
-    <t>玩家追寻卡牌的记忆，获取时光里的线索</t>
+    <t>玩家追寻卡牌的记忆，获取时光里的记忆</t>
   </si>
   <si>
     <t>获得送给知交的礼物</t>
@@ -83,7 +83,7 @@
     <t>追忆系统说明</t>
   </si>
   <si>
-    <t>挂机8小时追寻记忆后，可能获得知交礼物道具或拾光线索、或是线索的熟悉度</t>
+    <t>挂机8小时追寻记忆后，可能获得知交礼物道具或拾光记忆、或是记忆的熟悉度</t>
   </si>
   <si>
     <t>追忆入口</t>
@@ -121,7 +121,7 @@
     <t>地点</t>
   </si>
   <si>
-    <t>（不同地点配置不同场景动画、不同地点可能获得的礼物和拾光线索不同）</t>
+    <t>（不同地点配置不同场景动画、不同地点可能获得的礼物和拾光记忆不同）</t>
   </si>
   <si>
     <t>获取结果跳转追忆结果</t>
@@ -142,43 +142,43 @@
     <t>普通好感度</t>
   </si>
   <si>
-    <t>可能解锁拾光线索</t>
+    <t>可能解锁拾光记忆</t>
   </si>
   <si>
     <t>仕女图</t>
   </si>
   <si>
-    <t>线索ID1</t>
+    <t>记忆ID1</t>
   </si>
   <si>
     <t>落花簪</t>
   </si>
   <si>
-    <t>线索ID2</t>
+    <t>记忆ID2</t>
   </si>
   <si>
     <t>青铜镜</t>
   </si>
   <si>
-    <t>线索ID3</t>
+    <t>记忆ID3</t>
   </si>
   <si>
     <t>凤凰镜</t>
   </si>
   <si>
-    <t>线索ID4</t>
+    <t>记忆ID4</t>
   </si>
   <si>
     <t>张旭的字帖</t>
   </si>
   <si>
-    <t>线索ID5</t>
+    <t>记忆ID5</t>
   </si>
   <si>
     <t>吴道子的画</t>
   </si>
   <si>
-    <t>线索ID6</t>
+    <t>记忆ID6</t>
   </si>
   <si>
     <t>唐花纹香盒</t>
@@ -199,37 +199,37 @@
     <t>桃子</t>
   </si>
   <si>
-    <t>线索ID7</t>
+    <t>记忆ID7</t>
   </si>
   <si>
     <t>荔枝</t>
   </si>
   <si>
-    <t>线索ID8</t>
+    <t>记忆ID8</t>
   </si>
   <si>
     <t>泣血刃</t>
   </si>
   <si>
-    <t>线索ID9</t>
+    <t>记忆ID9</t>
   </si>
   <si>
     <t>三彩骏马</t>
   </si>
   <si>
-    <t>线索ID10</t>
+    <t>记忆ID10</t>
   </si>
   <si>
     <t>鎏金青铜马</t>
   </si>
   <si>
-    <t>线索ID11</t>
+    <t>记忆ID11</t>
   </si>
   <si>
     <t>三彩南瓜罐</t>
   </si>
   <si>
-    <t>线索ID12</t>
+    <t>记忆ID12</t>
   </si>
   <si>
     <t>秘色瓷手镯</t>
@@ -247,37 +247,37 @@
     <t>古琴</t>
   </si>
   <si>
-    <t>线索ID13</t>
+    <t>记忆ID13</t>
   </si>
   <si>
     <t>九眼天珠</t>
   </si>
   <si>
-    <t>线索ID14</t>
+    <t>记忆ID14</t>
   </si>
   <si>
     <t>凤首箜篌</t>
   </si>
   <si>
-    <t>线索ID15</t>
+    <t>记忆ID15</t>
   </si>
   <si>
     <t>白玉棋盘</t>
   </si>
   <si>
-    <t>线索ID16</t>
+    <t>记忆ID16</t>
   </si>
   <si>
     <t>鎏金铜佛像</t>
   </si>
   <si>
-    <t>线索ID17</t>
+    <t>记忆ID17</t>
   </si>
   <si>
     <t>玛瑙天珠手串</t>
   </si>
   <si>
-    <t>线索ID18</t>
+    <t>记忆ID18</t>
   </si>
   <si>
     <t>标题及系统说明</t>
@@ -304,7 +304,7 @@
     <t>出行信息</t>
   </si>
   <si>
-    <t>显示地点、可能获得的礼物及线索信息</t>
+    <t>显示地点、可能获得的礼物及记忆信息</t>
   </si>
   <si>
     <t>确定按钮</t>
@@ -364,7 +364,7 @@
     <t>单击确定按钮，使用道具加速，获取奖励</t>
   </si>
   <si>
-    <t>追忆后有概率获得礼物道具及拾光线索</t>
+    <t>追忆后有概率获得礼物道具及拾光记忆</t>
   </si>
   <si>
     <t>获取数量：8</t>
@@ -373,16 +373,16 @@
     <t>礼物道具获取概率50%</t>
   </si>
   <si>
-    <t>拾光线索遇到概率50%</t>
+    <t>拾光记忆遇到概率50%</t>
   </si>
   <si>
     <t>若随机到礼物道具，则再从该地点配置的礼物中随机1个</t>
   </si>
   <si>
-    <t>若随机到拾光线索，则再从该地点配置的线索中随机1个</t>
-  </si>
-  <si>
-    <t>拾光线索</t>
+    <t>若随机到拾光记忆，则再从该地点配置的记忆中随机1个</t>
+  </si>
+  <si>
+    <t>拾光记忆</t>
   </si>
   <si>
     <t>解锁次数=n</t>
@@ -391,13 +391,13 @@
     <t>解锁概率=5%×n</t>
   </si>
   <si>
-    <t>拾光线索解锁后，将出现在拾光系统里</t>
-  </si>
-  <si>
-    <t>拾光线索已解锁，则再次遇到时增加线索熟悉感</t>
-  </si>
-  <si>
-    <t>拾光线索信息文本分为已解锁、未解锁、解锁</t>
+    <t>拾光记忆解锁后，将出现在拾光系统里</t>
+  </si>
+  <si>
+    <t>拾光记忆已解锁，则再次遇到时增加记忆熟悉感</t>
+  </si>
+  <si>
+    <t>拾光记忆信息文本分为已解锁、未解锁、解锁</t>
   </si>
   <si>
     <t>未解锁时，从未解锁文本中随机1个</t>
@@ -421,16 +421,16 @@
     <t>显示礼物道具图标及数量</t>
   </si>
   <si>
-    <t>线索未解锁图标</t>
-  </si>
-  <si>
-    <t>显示线索图标及未解锁标志</t>
-  </si>
-  <si>
-    <t>线索已解锁图标</t>
-  </si>
-  <si>
-    <t>显示线索图标</t>
+    <t>记忆未解锁图标</t>
+  </si>
+  <si>
+    <t>显示记忆图标及未解锁标志</t>
+  </si>
+  <si>
+    <t>记忆已解锁图标</t>
+  </si>
+  <si>
+    <t>显示记忆图标</t>
   </si>
   <si>
     <t>礼物道具信息</t>
@@ -439,28 +439,28 @@
     <t>显示礼物名称、描述</t>
   </si>
   <si>
-    <t>拾光线索未解锁信息</t>
-  </si>
-  <si>
-    <t>显示拾光线索名称、未解锁描述</t>
-  </si>
-  <si>
-    <t>拾光线索解锁信息</t>
-  </si>
-  <si>
-    <t>显示时光线索名称、解锁提示、线索信息文本</t>
-  </si>
-  <si>
-    <t>拾光线索增加熟悉感信息</t>
-  </si>
-  <si>
-    <t>显示拾光线索名称、熟悉度增加提示、线索信息文本</t>
+    <t>拾光记忆未解锁信息</t>
+  </si>
+  <si>
+    <t>显示拾光记忆名称、未解锁描述</t>
+  </si>
+  <si>
+    <t>拾光记忆解锁信息</t>
+  </si>
+  <si>
+    <t>显示时光记忆名称、解锁提示、记忆信息文本</t>
+  </si>
+  <si>
+    <t>拾光记忆增加熟悉感信息</t>
+  </si>
+  <si>
+    <t>显示拾光记忆名称、熟悉度增加提示、记忆信息文本</t>
   </si>
   <si>
     <t>提示返回</t>
   </si>
   <si>
-    <t>拾光线索文本表</t>
+    <t>拾光记忆文本表</t>
   </si>
   <si>
     <t>属性名</t>
@@ -487,19 +487,78 @@
     <t>TextID</t>
   </si>
   <si>
-    <r>
-      <t>例如：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
+    <t>例如：101，1表示记忆ID，0分隔，1表示该组序号1</t>
+  </si>
+  <si>
+    <t>表示记忆的信息文本</t>
+  </si>
+  <si>
+    <t>文本组ID</t>
+  </si>
+  <si>
+    <t>TextGroupID</t>
+  </si>
+  <si>
+    <t>文本组ID=记忆ID</t>
+  </si>
+  <si>
+    <t>表示文本属于的记忆</t>
+  </si>
+  <si>
+    <t>解锁状态</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>未解锁=0，解锁=1，已解锁=2</t>
+  </si>
+  <si>
+    <t>表示该文本属于记忆不同解锁状态下的文本</t>
+  </si>
+  <si>
+    <t>追忆坐标人物移动表</t>
+  </si>
+  <si>
+    <t>坐标A</t>
+  </si>
+  <si>
+    <t>LocationA</t>
+  </si>
+  <si>
+    <t>填写坐标：（横坐标,纵坐标)</t>
+  </si>
+  <si>
+    <t>表示人物生成位置</t>
+  </si>
+  <si>
+    <t>坐标B</t>
+  </si>
+  <si>
+    <t>LocationB</t>
+  </si>
+  <si>
+    <t>表示人物移动后的停驻位置</t>
+  </si>
+  <si>
+    <t>场景ID</t>
+  </si>
+  <si>
+    <t>SceneID</t>
+  </si>
+  <si>
+    <t>填写场景的图片ID</t>
+  </si>
+  <si>
+    <t>表示场景图片ID</t>
+  </si>
+  <si>
+    <t>事件ID</t>
+  </si>
+  <si>
+    <t>RoleCGID</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -508,130 +567,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1表示线索ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，0分隔，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1表示该组序号1</t>
-    </r>
-  </si>
-  <si>
-    <t>表示线索的信息文本</t>
-  </si>
-  <si>
-    <t>文本组ID</t>
-  </si>
-  <si>
-    <t>TextGroupID</t>
-  </si>
-  <si>
-    <t>文本组ID=线索ID</t>
-  </si>
-  <si>
-    <t>表示文本属于的线索</t>
-  </si>
-  <si>
-    <t>解锁状态</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>未解锁=0，解锁=1，已解锁=2</t>
-  </si>
-  <si>
-    <t>表示该文本属于线索不同解锁状态下的文本</t>
-  </si>
-  <si>
-    <t>追忆坐标人物移动表</t>
-  </si>
-  <si>
-    <t>坐标A</t>
-  </si>
-  <si>
-    <t>LocationA</t>
-  </si>
-  <si>
-    <t>填写坐标：（横坐标,纵坐标)</t>
-  </si>
-  <si>
-    <t>表示人物生成位置</t>
-  </si>
-  <si>
-    <t>坐标B</t>
-  </si>
-  <si>
-    <t>LocationB</t>
-  </si>
-  <si>
-    <t>表示人物移动后的停驻位置</t>
-  </si>
-  <si>
-    <t>场景ID</t>
-  </si>
-  <si>
-    <t>SceneID</t>
-  </si>
-  <si>
-    <t>填写场景的图片ID</t>
-  </si>
-  <si>
-    <t>表示场景图片ID</t>
-  </si>
-  <si>
-    <t>事件ID</t>
-  </si>
-  <si>
-    <t>RoleCGID</t>
-  </si>
-  <si>
-    <r>
       <t>填写事件ID，例如：</t>
     </r>
     <r>
@@ -726,6 +661,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>填写事件ID，例如：</t>
     </r>
     <r>
@@ -872,10 +814,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -914,52 +856,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,17 +887,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1011,8 +916,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1026,19 +969,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1051,8 +986,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,19 +1029,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,7 +1065,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,7 +1113,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,19 +1173,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,103 +1209,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,26 +1223,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1329,11 +1271,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1355,26 +1303,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1386,10 +1328,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1398,137 +1340,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1554,9 +1496,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1564,9 +1503,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1576,9 +1512,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1647,6 +1580,82 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>340995</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18" descr="7%`5B}$)@_HGBZVS20{DIIL"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="47999650"/>
+          <a:ext cx="3427095" cy="6073775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>299720</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15" descr="RI6JQ8UQBYXZ80JUT~6{FIF"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="19278600"/>
+          <a:ext cx="3433445" cy="6068060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
@@ -1664,7 +1673,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1673,44 +1682,6 @@
         <a:xfrm>
           <a:off x="2752725" y="4124325"/>
           <a:ext cx="3420110" cy="6077585"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>284480</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="UO0{U5B0@]Q54DIM~DWZCFH"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2724150" y="19288125"/>
-          <a:ext cx="3399155" cy="6038850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2668,7 +2639,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3300,7 +3271,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3776,44 +3747,6 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>306</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>328930</xdr:colOff>
-      <xdr:row>345</xdr:row>
-      <xdr:rowOff>113665</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="图片 29" descr="0LSV`]_YY1IMW$CWO~{{EQ6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2752725" y="48025050"/>
-          <a:ext cx="3415030" cy="6038215"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5405,7 +5338,7 @@
   <dimension ref="B3:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -5457,8 +5390,8 @@
   <sheetPr/>
   <dimension ref="B3:Q394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M397" sqref="M397"/>
+    <sheetView tabSelected="1" topLeftCell="B142" workbookViewId="0">
+      <selection activeCell="O325" sqref="O325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -6238,7 +6171,7 @@
       <c r="E225" s="4">
         <v>2</v>
       </c>
-      <c r="F225" s="8" t="s">
+      <c r="F225" s="4" t="s">
         <v>101</v>
       </c>
       <c r="G225" s="4"/>
@@ -6255,7 +6188,7 @@
       <c r="E226" s="4">
         <v>3</v>
       </c>
-      <c r="F226" s="8" t="s">
+      <c r="F226" s="4" t="s">
         <v>103</v>
       </c>
       <c r="G226" s="4" t="s">
@@ -6263,7 +6196,7 @@
       </c>
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
-      <c r="J226" s="9" t="s">
+      <c r="J226" s="8" t="s">
         <v>105</v>
       </c>
       <c r="K226" s="7"/>
@@ -6274,13 +6207,13 @@
       <c r="E227" s="4">
         <v>4</v>
       </c>
-      <c r="F227" s="8" t="s">
+      <c r="F227" s="4" t="s">
         <v>106</v>
       </c>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
-      <c r="J227" s="9" t="s">
+      <c r="J227" s="8" t="s">
         <v>107</v>
       </c>
       <c r="K227" s="7"/>
@@ -6334,7 +6267,7 @@
       </c>
     </row>
     <row r="278" spans="5:14">
-      <c r="E278" s="8">
+      <c r="E278" s="4">
         <v>1</v>
       </c>
       <c r="F278" s="4" t="s">
@@ -6352,38 +6285,38 @@
       <c r="N278" s="4"/>
     </row>
     <row r="279" spans="5:13">
-      <c r="E279" s="8">
+      <c r="E279" s="4">
         <v>2</v>
       </c>
-      <c r="F279" s="8" t="s">
+      <c r="F279" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G279" s="8"/>
-      <c r="H279" s="8"/>
-      <c r="I279" s="8"/>
-      <c r="J279" s="8" t="s">
+      <c r="G279" s="4"/>
+      <c r="H279" s="4"/>
+      <c r="I279" s="4"/>
+      <c r="J279" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K279" s="8"/>
-      <c r="L279" s="8"/>
-      <c r="M279" s="8"/>
+      <c r="K279" s="4"/>
+      <c r="L279" s="4"/>
+      <c r="M279" s="4"/>
     </row>
     <row r="280" spans="5:13">
       <c r="E280" s="4">
         <v>3</v>
       </c>
-      <c r="F280" s="8" t="s">
+      <c r="F280" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G280" s="8" t="s">
+      <c r="G280" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H280" s="8"/>
-      <c r="I280" s="8"/>
-      <c r="J280" s="8"/>
-      <c r="K280" s="8"/>
-      <c r="L280" s="8"/>
-      <c r="M280" s="8"/>
+      <c r="H280" s="4"/>
+      <c r="I280" s="4"/>
+      <c r="J280" s="4"/>
+      <c r="K280" s="4"/>
+      <c r="L280" s="4"/>
+      <c r="M280" s="4"/>
     </row>
     <row r="284" spans="4:5">
       <c r="D284" s="2">
@@ -6509,7 +6442,7 @@
       </c>
     </row>
     <row r="351" spans="5:14">
-      <c r="E351" s="8">
+      <c r="E351" s="4">
         <v>1</v>
       </c>
       <c r="F351" s="4" t="s">
@@ -6527,10 +6460,10 @@
       <c r="N351" s="4"/>
     </row>
     <row r="352" spans="5:13">
-      <c r="E352" s="8">
+      <c r="E352" s="4">
         <v>2</v>
       </c>
-      <c r="F352" s="8" t="s">
+      <c r="F352" s="4" t="s">
         <v>131</v>
       </c>
       <c r="G352" s="4"/>
@@ -6544,10 +6477,10 @@
       <c r="M352" s="7"/>
     </row>
     <row r="353" spans="5:13">
-      <c r="E353" s="8">
+      <c r="E353" s="4">
         <v>3</v>
       </c>
-      <c r="F353" s="8" t="s">
+      <c r="F353" s="4" t="s">
         <v>133</v>
       </c>
       <c r="G353" s="4"/>
@@ -6561,10 +6494,10 @@
       <c r="M353" s="7"/>
     </row>
     <row r="354" spans="5:13">
-      <c r="E354" s="8">
+      <c r="E354" s="4">
         <v>4</v>
       </c>
-      <c r="F354" s="8" t="s">
+      <c r="F354" s="4" t="s">
         <v>135</v>
       </c>
       <c r="G354" s="4"/>
@@ -6578,10 +6511,10 @@
       <c r="M354" s="7"/>
     </row>
     <row r="355" spans="5:13">
-      <c r="E355" s="8">
+      <c r="E355" s="4">
         <v>5</v>
       </c>
-      <c r="F355" s="8" t="s">
+      <c r="F355" s="4" t="s">
         <v>137</v>
       </c>
       <c r="G355" s="4"/>
@@ -6595,10 +6528,10 @@
       <c r="M355" s="7"/>
     </row>
     <row r="356" spans="5:13">
-      <c r="E356" s="8">
+      <c r="E356" s="4">
         <v>6</v>
       </c>
-      <c r="F356" s="8" t="s">
+      <c r="F356" s="4" t="s">
         <v>139</v>
       </c>
       <c r="G356" s="4"/>
@@ -6612,10 +6545,10 @@
       <c r="M356" s="7"/>
     </row>
     <row r="357" spans="5:13">
-      <c r="E357" s="8">
+      <c r="E357" s="4">
         <v>7</v>
       </c>
-      <c r="F357" s="8" t="s">
+      <c r="F357" s="4" t="s">
         <v>141</v>
       </c>
       <c r="G357" s="4"/>
@@ -6629,10 +6562,10 @@
       <c r="M357" s="7"/>
     </row>
     <row r="358" spans="5:13">
-      <c r="E358" s="8">
+      <c r="E358" s="4">
         <v>8</v>
       </c>
-      <c r="F358" s="8" t="s">
+      <c r="F358" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G358" s="4"/>
@@ -6646,10 +6579,10 @@
       <c r="M358" s="7"/>
     </row>
     <row r="359" spans="5:13">
-      <c r="E359" s="8">
+      <c r="E359" s="4">
         <v>9</v>
       </c>
-      <c r="F359" s="8" t="s">
+      <c r="F359" s="4" t="s">
         <v>145</v>
       </c>
       <c r="G359" s="4" t="s">
@@ -6679,16 +6612,16 @@
       </c>
     </row>
     <row r="367" spans="5:17">
-      <c r="E367" s="10" t="s">
+      <c r="E367" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F367" s="10" t="s">
+      <c r="F367" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G367" s="10" t="s">
+      <c r="G367" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H367" s="10" t="s">
+      <c r="H367" s="9" t="s">
         <v>150</v>
       </c>
       <c r="I367" s="3" t="s">
@@ -6706,91 +6639,91 @@
       <c r="Q367" s="3"/>
     </row>
     <row r="368" spans="5:17">
-      <c r="E368" s="8" t="s">
+      <c r="E368" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F368" s="8" t="s">
+      <c r="F368" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I368" s="8" t="s">
+      <c r="I368" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J368" s="8"/>
-      <c r="K368" s="8"/>
-      <c r="L368" s="8"/>
-      <c r="M368" s="12" t="s">
+      <c r="J368" s="4"/>
+      <c r="K368" s="4"/>
+      <c r="L368" s="4"/>
+      <c r="M368" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="N368" s="12"/>
-      <c r="O368" s="12"/>
-      <c r="P368" s="12"/>
-      <c r="Q368" s="12"/>
+      <c r="N368" s="7"/>
+      <c r="O368" s="7"/>
+      <c r="P368" s="7"/>
+      <c r="Q368" s="7"/>
     </row>
     <row r="369" spans="5:17">
-      <c r="E369" s="8" t="s">
+      <c r="E369" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F369" s="8" t="s">
+      <c r="F369" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I369" s="8" t="s">
+      <c r="I369" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="J369" s="8"/>
-      <c r="K369" s="8"/>
-      <c r="L369" s="8"/>
-      <c r="M369" s="12" t="s">
+      <c r="J369" s="4"/>
+      <c r="K369" s="4"/>
+      <c r="L369" s="4"/>
+      <c r="M369" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="N369" s="12"/>
-      <c r="O369" s="12"/>
-      <c r="P369" s="12"/>
-      <c r="Q369" s="12"/>
+      <c r="N369" s="7"/>
+      <c r="O369" s="7"/>
+      <c r="P369" s="7"/>
+      <c r="Q369" s="7"/>
     </row>
     <row r="370" spans="5:17">
-      <c r="E370" s="8" t="s">
+      <c r="E370" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F370" s="8" t="s">
+      <c r="F370" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I370" s="8" t="s">
+      <c r="I370" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="J370" s="8"/>
-      <c r="K370" s="8"/>
-      <c r="L370" s="8"/>
-      <c r="M370" s="12" t="s">
+      <c r="J370" s="4"/>
+      <c r="K370" s="4"/>
+      <c r="L370" s="4"/>
+      <c r="M370" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N370" s="12"/>
-      <c r="O370" s="12"/>
-      <c r="P370" s="12"/>
-      <c r="Q370" s="12"/>
+      <c r="N370" s="7"/>
+      <c r="O370" s="7"/>
+      <c r="P370" s="7"/>
+      <c r="Q370" s="7"/>
     </row>
     <row r="371" spans="5:17">
-      <c r="E371" s="8"/>
-      <c r="F371" s="8"/>
-      <c r="I371" s="8"/>
-      <c r="J371" s="8"/>
-      <c r="K371" s="8"/>
-      <c r="L371" s="8"/>
-      <c r="M371" s="12"/>
-      <c r="N371" s="12"/>
-      <c r="O371" s="12"/>
-      <c r="P371" s="12"/>
-      <c r="Q371" s="12"/>
+      <c r="E371" s="4"/>
+      <c r="F371" s="4"/>
+      <c r="I371" s="4"/>
+      <c r="J371" s="4"/>
+      <c r="K371" s="4"/>
+      <c r="L371" s="4"/>
+      <c r="M371" s="7"/>
+      <c r="N371" s="7"/>
+      <c r="O371" s="7"/>
+      <c r="P371" s="7"/>
+      <c r="Q371" s="7"/>
     </row>
     <row r="372" spans="9:17">
-      <c r="I372" s="8"/>
-      <c r="J372" s="8"/>
-      <c r="K372" s="8"/>
-      <c r="L372" s="8"/>
-      <c r="M372" s="8"/>
-      <c r="N372" s="8"/>
-      <c r="O372" s="8"/>
-      <c r="P372" s="8"/>
-      <c r="Q372" s="8"/>
+      <c r="I372" s="4"/>
+      <c r="J372" s="4"/>
+      <c r="K372" s="4"/>
+      <c r="L372" s="4"/>
+      <c r="M372" s="4"/>
+      <c r="N372" s="4"/>
+      <c r="O372" s="4"/>
+      <c r="P372" s="4"/>
+      <c r="Q372" s="4"/>
     </row>
     <row r="373" spans="4:17">
       <c r="D373" s="2">
@@ -6799,27 +6732,27 @@
       <c r="E373" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I373" s="8"/>
-      <c r="J373" s="8"/>
-      <c r="K373" s="8"/>
-      <c r="L373" s="8"/>
-      <c r="M373" s="8"/>
-      <c r="N373" s="8"/>
-      <c r="O373" s="8"/>
-      <c r="P373" s="8"/>
-      <c r="Q373" s="8"/>
+      <c r="I373" s="4"/>
+      <c r="J373" s="4"/>
+      <c r="K373" s="4"/>
+      <c r="L373" s="4"/>
+      <c r="M373" s="4"/>
+      <c r="N373" s="4"/>
+      <c r="O373" s="4"/>
+      <c r="P373" s="4"/>
+      <c r="Q373" s="4"/>
     </row>
     <row r="374" spans="5:17">
-      <c r="E374" s="10" t="s">
+      <c r="E374" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F374" s="10" t="s">
+      <c r="F374" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G374" s="10" t="s">
+      <c r="G374" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H374" s="10" t="s">
+      <c r="H374" s="9" t="s">
         <v>150</v>
       </c>
       <c r="I374" s="3" t="s">
@@ -6837,103 +6770,103 @@
       <c r="Q374" s="3"/>
     </row>
     <row r="375" s="1" customFormat="1" spans="5:17">
-      <c r="E375" s="8" t="s">
+      <c r="E375" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F375" s="8" t="s">
+      <c r="F375" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G375" s="11"/>
-      <c r="H375" s="11"/>
-      <c r="I375" s="13" t="s">
+      <c r="G375" s="10"/>
+      <c r="H375" s="10"/>
+      <c r="I375" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="J375" s="13"/>
-      <c r="K375" s="13"/>
-      <c r="L375" s="13"/>
-      <c r="M375" s="14" t="s">
+      <c r="J375" s="11"/>
+      <c r="K375" s="11"/>
+      <c r="L375" s="11"/>
+      <c r="M375" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="N375" s="15"/>
-      <c r="O375" s="15"/>
-      <c r="P375" s="15"/>
-      <c r="Q375" s="15"/>
+      <c r="N375" s="13"/>
+      <c r="O375" s="13"/>
+      <c r="P375" s="13"/>
+      <c r="Q375" s="13"/>
     </row>
     <row r="376" spans="5:17">
-      <c r="E376" s="8" t="s">
+      <c r="E376" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F376" s="8" t="s">
+      <c r="F376" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="I376" s="8" t="s">
+      <c r="I376" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="J376" s="8"/>
-      <c r="K376" s="8"/>
-      <c r="L376" s="8"/>
-      <c r="M376" s="12" t="s">
+      <c r="J376" s="4"/>
+      <c r="K376" s="4"/>
+      <c r="L376" s="4"/>
+      <c r="M376" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="N376" s="12"/>
-      <c r="O376" s="12"/>
-      <c r="P376" s="12"/>
-      <c r="Q376" s="12"/>
+      <c r="N376" s="7"/>
+      <c r="O376" s="7"/>
+      <c r="P376" s="7"/>
+      <c r="Q376" s="7"/>
     </row>
     <row r="377" spans="5:17">
-      <c r="E377" s="8" t="s">
+      <c r="E377" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F377" s="8" t="s">
+      <c r="F377" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I377" s="8" t="s">
+      <c r="I377" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J377" s="8"/>
-      <c r="K377" s="8"/>
-      <c r="L377" s="8"/>
-      <c r="M377" s="12" t="s">
+      <c r="J377" s="4"/>
+      <c r="K377" s="4"/>
+      <c r="L377" s="4"/>
+      <c r="M377" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="N377" s="12"/>
-      <c r="O377" s="12"/>
-      <c r="P377" s="12"/>
-      <c r="Q377" s="12"/>
+      <c r="N377" s="7"/>
+      <c r="O377" s="7"/>
+      <c r="P377" s="7"/>
+      <c r="Q377" s="7"/>
     </row>
     <row r="378" ht="26" customHeight="1" spans="5:17">
-      <c r="E378" s="8" t="s">
+      <c r="E378" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F378" s="8" t="s">
+      <c r="F378" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="I378" s="16" t="s">
+      <c r="I378" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="J378" s="8"/>
-      <c r="K378" s="8"/>
-      <c r="L378" s="8"/>
-      <c r="M378" s="12" t="s">
+      <c r="J378" s="4"/>
+      <c r="K378" s="4"/>
+      <c r="L378" s="4"/>
+      <c r="M378" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="N378" s="12"/>
-      <c r="O378" s="12"/>
-      <c r="P378" s="12"/>
-      <c r="Q378" s="12"/>
+      <c r="N378" s="7"/>
+      <c r="O378" s="7"/>
+      <c r="P378" s="7"/>
+      <c r="Q378" s="7"/>
     </row>
     <row r="379" spans="5:17">
-      <c r="E379" s="8"/>
-      <c r="F379" s="8"/>
-      <c r="I379" s="8"/>
-      <c r="J379" s="8"/>
-      <c r="K379" s="8"/>
-      <c r="L379" s="8"/>
-      <c r="M379" s="12"/>
-      <c r="N379" s="12"/>
-      <c r="O379" s="12"/>
-      <c r="P379" s="12"/>
-      <c r="Q379" s="12"/>
+      <c r="E379" s="4"/>
+      <c r="F379" s="4"/>
+      <c r="I379" s="4"/>
+      <c r="J379" s="4"/>
+      <c r="K379" s="4"/>
+      <c r="L379" s="4"/>
+      <c r="M379" s="7"/>
+      <c r="N379" s="7"/>
+      <c r="O379" s="7"/>
+      <c r="P379" s="7"/>
+      <c r="Q379" s="7"/>
     </row>
     <row r="382" spans="4:5">
       <c r="D382" s="2">
@@ -6944,16 +6877,16 @@
       </c>
     </row>
     <row r="383" spans="5:17">
-      <c r="E383" s="10" t="s">
+      <c r="E383" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F383" s="10" t="s">
+      <c r="F383" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G383" s="10" t="s">
+      <c r="G383" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H383" s="10" t="s">
+      <c r="H383" s="9" t="s">
         <v>150</v>
       </c>
       <c r="I383" s="3" t="s">
@@ -6971,88 +6904,88 @@
       <c r="Q383" s="3"/>
     </row>
     <row r="384" spans="5:17">
-      <c r="E384" s="8" t="s">
+      <c r="E384" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F384" s="8" t="s">
+      <c r="F384" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="I384" s="16" t="s">
+      <c r="I384" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J384" s="8"/>
-      <c r="K384" s="8"/>
-      <c r="L384" s="8"/>
-      <c r="M384" s="12" t="s">
+      <c r="J384" s="4"/>
+      <c r="K384" s="4"/>
+      <c r="L384" s="4"/>
+      <c r="M384" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="N384" s="12"/>
-      <c r="O384" s="12"/>
-      <c r="P384" s="12"/>
-      <c r="Q384" s="12"/>
+      <c r="N384" s="7"/>
+      <c r="O384" s="7"/>
+      <c r="P384" s="7"/>
+      <c r="Q384" s="7"/>
     </row>
     <row r="385" spans="5:17">
-      <c r="E385" s="8" t="s">
+      <c r="E385" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F385" s="8" t="s">
+      <c r="F385" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I385" s="8" t="s">
+      <c r="I385" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J385" s="8"/>
-      <c r="K385" s="8"/>
-      <c r="L385" s="8"/>
-      <c r="M385" s="12" t="s">
+      <c r="J385" s="4"/>
+      <c r="K385" s="4"/>
+      <c r="L385" s="4"/>
+      <c r="M385" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="N385" s="12"/>
-      <c r="O385" s="12"/>
-      <c r="P385" s="12"/>
-      <c r="Q385" s="12"/>
+      <c r="N385" s="7"/>
+      <c r="O385" s="7"/>
+      <c r="P385" s="7"/>
+      <c r="Q385" s="7"/>
     </row>
     <row r="386" ht="31" customHeight="1" spans="5:17">
-      <c r="E386" s="8" t="s">
+      <c r="E386" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F386" s="8" t="s">
+      <c r="F386" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I386" s="16" t="s">
+      <c r="I386" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="J386" s="8"/>
-      <c r="K386" s="8"/>
-      <c r="L386" s="8"/>
-      <c r="M386" s="12" t="s">
+      <c r="J386" s="4"/>
+      <c r="K386" s="4"/>
+      <c r="L386" s="4"/>
+      <c r="M386" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="N386" s="12"/>
-      <c r="O386" s="12"/>
-      <c r="P386" s="12"/>
-      <c r="Q386" s="12"/>
+      <c r="N386" s="7"/>
+      <c r="O386" s="7"/>
+      <c r="P386" s="7"/>
+      <c r="Q386" s="7"/>
     </row>
     <row r="387" spans="5:17">
-      <c r="E387" s="8" t="s">
+      <c r="E387" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F387" s="8" t="s">
+      <c r="F387" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="I387" s="8" t="s">
+      <c r="I387" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="J387" s="8"/>
-      <c r="K387" s="8"/>
-      <c r="L387" s="8"/>
-      <c r="M387" s="12" t="s">
+      <c r="J387" s="4"/>
+      <c r="K387" s="4"/>
+      <c r="L387" s="4"/>
+      <c r="M387" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="N387" s="12"/>
-      <c r="O387" s="12"/>
-      <c r="P387" s="12"/>
-      <c r="Q387" s="12"/>
+      <c r="N387" s="7"/>
+      <c r="O387" s="7"/>
+      <c r="P387" s="7"/>
+      <c r="Q387" s="7"/>
     </row>
     <row r="390" spans="4:5">
       <c r="D390" s="2">
@@ -7063,16 +6996,16 @@
       </c>
     </row>
     <row r="391" spans="5:17">
-      <c r="E391" s="10" t="s">
+      <c r="E391" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F391" s="10" t="s">
+      <c r="F391" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G391" s="10" t="s">
+      <c r="G391" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H391" s="10" t="s">
+      <c r="H391" s="9" t="s">
         <v>150</v>
       </c>
       <c r="I391" s="3" t="s">
@@ -7090,67 +7023,67 @@
       <c r="Q391" s="3"/>
     </row>
     <row r="392" ht="34" customHeight="1" spans="5:17">
-      <c r="E392" s="8" t="s">
+      <c r="E392" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F392" s="8" t="s">
+      <c r="F392" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I392" s="16" t="s">
+      <c r="I392" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="J392" s="8"/>
-      <c r="K392" s="8"/>
-      <c r="L392" s="8"/>
-      <c r="M392" s="8" t="s">
+      <c r="J392" s="4"/>
+      <c r="K392" s="4"/>
+      <c r="L392" s="4"/>
+      <c r="M392" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="N392" s="8"/>
-      <c r="O392" s="8"/>
-      <c r="P392" s="8"/>
-      <c r="Q392" s="8"/>
+      <c r="N392" s="4"/>
+      <c r="O392" s="4"/>
+      <c r="P392" s="4"/>
+      <c r="Q392" s="4"/>
     </row>
     <row r="393" spans="5:17">
-      <c r="E393" s="8" t="s">
+      <c r="E393" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F393" s="8" t="s">
+      <c r="F393" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="I393" s="8" t="s">
+      <c r="I393" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="J393" s="8"/>
-      <c r="K393" s="8"/>
-      <c r="L393" s="8"/>
-      <c r="M393" s="8" t="s">
+      <c r="J393" s="4"/>
+      <c r="K393" s="4"/>
+      <c r="L393" s="4"/>
+      <c r="M393" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="N393" s="8"/>
-      <c r="O393" s="8"/>
-      <c r="P393" s="8"/>
-      <c r="Q393" s="8"/>
+      <c r="N393" s="4"/>
+      <c r="O393" s="4"/>
+      <c r="P393" s="4"/>
+      <c r="Q393" s="4"/>
     </row>
     <row r="394" spans="5:17">
-      <c r="E394" s="8" t="s">
+      <c r="E394" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F394" s="8" t="s">
+      <c r="F394" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="I394" s="8" t="s">
+      <c r="I394" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J394" s="8"/>
-      <c r="K394" s="8"/>
-      <c r="L394" s="8"/>
-      <c r="M394" s="8" t="s">
+      <c r="J394" s="4"/>
+      <c r="K394" s="4"/>
+      <c r="L394" s="4"/>
+      <c r="M394" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="N394" s="8"/>
-      <c r="O394" s="8"/>
-      <c r="P394" s="8"/>
-      <c r="Q394" s="8"/>
+      <c r="N394" s="4"/>
+      <c r="O394" s="4"/>
+      <c r="P394" s="4"/>
+      <c r="Q394" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="121">

--- a/8月制作内容/系统文档/【叶雯婷】追忆系统策划案.xlsx
+++ b/8月制作内容/系统文档/【叶雯婷】追忆系统策划案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <t>修改人</t>
   </si>
   <si>
-    <t>2019.07.19</t>
+    <t>2019.07.29</t>
   </si>
   <si>
     <t>策划案撰写</t>
@@ -814,9 +814,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -856,9 +856,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,44 +963,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -941,21 +986,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,38 +994,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1029,37 +1029,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,43 +1113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,37 +1125,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,19 +1137,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,19 +1161,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,26 +1223,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1262,11 +1247,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1282,6 +1273,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1303,8 +1303,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1312,11 +1314,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1328,10 +1328,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1340,37 +1340,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1379,94 +1373,100 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5337,8 +5337,8 @@
   <sheetPr/>
   <dimension ref="B3:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -5390,7 +5390,7 @@
   <sheetPr/>
   <dimension ref="B3:Q394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B142" workbookViewId="0">
+    <sheetView topLeftCell="B142" workbookViewId="0">
       <selection activeCell="O325" sqref="O325"/>
     </sheetView>
   </sheetViews>

--- a/8月制作内容/系统文档/【叶雯婷】追忆系统策划案.xlsx
+++ b/8月制作内容/系统文档/【叶雯婷】追忆系统策划案.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView windowWidth="24345" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
-    <sheet name="策划案" sheetId="2" r:id="rId2"/>
+    <sheet name="功能说明" sheetId="2" r:id="rId2"/>
+    <sheet name="界面规则" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="225">
   <si>
     <t>时间</t>
   </si>
@@ -38,6 +39,12 @@
     <t>叶雯婷</t>
   </si>
   <si>
+    <t>2019.08.02</t>
+  </si>
+  <si>
+    <t>策划案拆分功能说明和界面规则，格式优化</t>
+  </si>
+  <si>
     <t>追忆系统</t>
   </si>
   <si>
@@ -56,13 +63,10 @@
     <t>设计思路</t>
   </si>
   <si>
-    <t>开启追忆</t>
-  </si>
-  <si>
-    <t>追忆表现</t>
-  </si>
-  <si>
-    <t>加速道具</t>
+    <t>追忆说明</t>
+  </si>
+  <si>
+    <t>追忆方式</t>
   </si>
   <si>
     <t>追忆结果</t>
@@ -86,33 +90,49 @@
     <t>挂机8小时追寻记忆后，可能获得知交礼物道具或拾光记忆、或是记忆的熟悉度</t>
   </si>
   <si>
-    <t>追忆入口</t>
-  </si>
-  <si>
-    <t>序号</t>
+    <t>定义说明</t>
   </si>
   <si>
     <t>名称</t>
   </si>
   <si>
-    <t>操作说明</t>
-  </si>
-  <si>
-    <t>显示说明</t>
-  </si>
-  <si>
-    <t>修改备注</t>
-  </si>
-  <si>
-    <t>单击追忆图标，弹出追忆选择弹窗</t>
-  </si>
-  <si>
-    <t>若在追忆挂机时，则显示追忆动画；
-若追忆结束，奖励未领取，则显示追忆结算；
-若当前无可领取奖励，且不在挂机状态，则弹出选择弹窗</t>
-  </si>
-  <si>
-    <t>追忆方式</t>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>礼物</t>
+  </si>
+  <si>
+    <t>知交好感道具，增加知交好感度</t>
+  </si>
+  <si>
+    <t>拾光记忆</t>
+  </si>
+  <si>
+    <t>从卡牌中产生的记忆，通过追忆找寻</t>
+  </si>
+  <si>
+    <t>熟悉感</t>
+  </si>
+  <si>
+    <t>拾光记忆上的属性之一，能够提升记忆完整度并解锁记忆加成</t>
+  </si>
+  <si>
+    <t>沙漏</t>
+  </si>
+  <si>
+    <t>使用后直接完成本次追忆，获得追忆奖励</t>
+  </si>
+  <si>
+    <t>追忆事件</t>
+  </si>
+  <si>
+    <t>表示在追忆系统中产生的事件</t>
+  </si>
+  <si>
+    <t>追忆奖励</t>
+  </si>
+  <si>
+    <t>表示在追忆结束时获得的奖励</t>
   </si>
   <si>
     <t>每次追忆持续8小时，可使用道具沙漏加速完成</t>
@@ -124,9 +144,6 @@
     <t>（不同地点配置不同场景动画、不同地点可能获得的礼物和拾光记忆不同）</t>
   </si>
   <si>
-    <t>获取结果跳转追忆结果</t>
-  </si>
-  <si>
     <t>城内</t>
   </si>
   <si>
@@ -280,187 +297,40 @@
     <t>记忆ID18</t>
   </si>
   <si>
-    <t>标题及系统说明</t>
-  </si>
-  <si>
-    <t>显示标题及系统说明按钮</t>
-  </si>
-  <si>
-    <t>显示时长</t>
-  </si>
-  <si>
-    <t>关闭按钮</t>
-  </si>
-  <si>
-    <t>单击关闭弹窗</t>
-  </si>
-  <si>
-    <t>出行方式</t>
-  </si>
-  <si>
-    <t>显示出行方式名称及图标</t>
-  </si>
-  <si>
-    <t>出行信息</t>
-  </si>
-  <si>
-    <t>显示地点、可能获得的礼物及记忆信息</t>
-  </si>
-  <si>
-    <t>确定按钮</t>
-  </si>
-  <si>
-    <t>单击确定按钮，开始追忆</t>
-  </si>
-  <si>
-    <t>根据不同地点，显示不同的场景。</t>
-  </si>
-  <si>
-    <t>场景固定，人物动画每次进入动画界面时随机坐标点的人物动画及对话文本</t>
-  </si>
-  <si>
-    <t>单击返回主界面</t>
-  </si>
-  <si>
-    <t>倒计时</t>
-  </si>
-  <si>
-    <t>显示距离结束时间</t>
-  </si>
-  <si>
-    <t>加速按钮</t>
-  </si>
-  <si>
-    <t>单击加速按钮，弹出使用道具弹窗</t>
-  </si>
-  <si>
-    <t>判断到玩家拥有加速道具，则显示加速按钮；
-判断到玩家未拥有加速道具，则不显示按钮。</t>
-  </si>
-  <si>
-    <t>场景动画</t>
-  </si>
-  <si>
-    <t>1.场景：根据选择显示不同地点的场景
-2.人物：根据配置表，随机2个人物移动，生成移动路线；每隔20s随机1个人物移动
-3.事件：当人物移动到位置B时，触发对话事件</t>
-  </si>
-  <si>
-    <t>配置表跳转</t>
-  </si>
-  <si>
-    <t>使用加速道具：沙漏</t>
-  </si>
-  <si>
-    <t>可直接完成本次8小时的追忆，获得追忆奖励</t>
-  </si>
-  <si>
-    <t>使用消耗信息</t>
-  </si>
-  <si>
-    <t>显示消耗提示文本、道具数量、道具需要着重颜色强调</t>
-  </si>
-  <si>
-    <t>单击确定按钮，使用道具加速，获取奖励</t>
-  </si>
-  <si>
     <t>追忆后有概率获得礼物道具及拾光记忆</t>
   </si>
   <si>
     <t>获取数量：8</t>
   </si>
   <si>
-    <t>礼物道具获取概率50%</t>
-  </si>
-  <si>
-    <t>拾光记忆遇到概率50%</t>
+    <t>结果类型</t>
   </si>
   <si>
     <t>若随机到礼物道具，则再从该地点配置的礼物中随机1个</t>
   </si>
   <si>
+    <t>（查看奖励组权重）</t>
+  </si>
+  <si>
     <t>若随机到拾光记忆，则再从该地点配置的记忆中随机1个</t>
   </si>
   <si>
-    <t>拾光记忆</t>
-  </si>
-  <si>
     <t>解锁次数=n</t>
   </si>
   <si>
     <t>解锁概率=5%×n</t>
   </si>
   <si>
+    <t>拾光记忆未解锁前，每次遇到都触发概率，判断是否解锁</t>
+  </si>
+  <si>
     <t>拾光记忆解锁后，将出现在拾光系统里</t>
   </si>
   <si>
-    <t>拾光记忆已解锁，则再次遇到时增加记忆熟悉感</t>
-  </si>
-  <si>
-    <t>拾光记忆信息文本分为已解锁、未解锁、解锁</t>
-  </si>
-  <si>
-    <t>未解锁时，从未解锁文本中随机1个</t>
-  </si>
-  <si>
-    <t>已解锁时，从已解锁文本中随机1个</t>
-  </si>
-  <si>
-    <t>解锁时，固定1个文本</t>
-  </si>
-  <si>
-    <t>标题</t>
-  </si>
-  <si>
-    <t>显示“追忆结束”</t>
-  </si>
-  <si>
-    <t>礼物道具图标</t>
-  </si>
-  <si>
-    <t>显示礼物道具图标及数量</t>
-  </si>
-  <si>
-    <t>记忆未解锁图标</t>
-  </si>
-  <si>
-    <t>显示记忆图标及未解锁标志</t>
-  </si>
-  <si>
-    <t>记忆已解锁图标</t>
-  </si>
-  <si>
-    <t>显示记忆图标</t>
-  </si>
-  <si>
-    <t>礼物道具信息</t>
-  </si>
-  <si>
-    <t>显示礼物名称、描述</t>
-  </si>
-  <si>
-    <t>拾光记忆未解锁信息</t>
-  </si>
-  <si>
-    <t>显示拾光记忆名称、未解锁描述</t>
-  </si>
-  <si>
-    <t>拾光记忆解锁信息</t>
-  </si>
-  <si>
-    <t>显示时光记忆名称、解锁提示、记忆信息文本</t>
-  </si>
-  <si>
-    <t>拾光记忆增加熟悉感信息</t>
-  </si>
-  <si>
-    <t>显示拾光记忆名称、熟悉度增加提示、记忆信息文本</t>
-  </si>
-  <si>
-    <t>提示返回</t>
-  </si>
-  <si>
-    <t>拾光记忆文本表</t>
+    <t>拾光记忆解锁后，则再次遇到时增加该记忆的熟悉感</t>
+  </si>
+  <si>
+    <t>追忆掉落文本表</t>
   </si>
   <si>
     <t>属性名</t>
@@ -487,34 +357,52 @@
     <t>TextID</t>
   </si>
   <si>
-    <t>例如：101，1表示记忆ID，0分隔，1表示该组序号1</t>
-  </si>
-  <si>
-    <t>表示记忆的信息文本</t>
-  </si>
-  <si>
-    <t>文本组ID</t>
+    <t>表示文本ID</t>
+  </si>
+  <si>
+    <t>文本组</t>
   </si>
   <si>
     <t>TextGroupID</t>
   </si>
   <si>
-    <t>文本组ID=记忆ID</t>
-  </si>
-  <si>
-    <t>表示文本属于的记忆</t>
+    <t>好感道具=1，记忆=2</t>
+  </si>
+  <si>
+    <t>表示文本组的ID</t>
+  </si>
+  <si>
+    <t>文本内容</t>
+  </si>
+  <si>
+    <t>TextContent</t>
+  </si>
+  <si>
+    <t>表示文本内容</t>
+  </si>
+  <si>
+    <t>掉落ID</t>
+  </si>
+  <si>
+    <t>DropID</t>
+  </si>
+  <si>
+    <t>填写掉落的知交好感道具ID或记忆ID</t>
+  </si>
+  <si>
+    <t>表示追忆掉落的知交好感道具或记忆</t>
   </si>
   <si>
     <t>解锁状态</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>未解锁=0，解锁=1，已解锁=2</t>
-  </si>
-  <si>
-    <t>表示该文本属于记忆不同解锁状态下的文本</t>
+    <t>LockStatus</t>
+  </si>
+  <si>
+    <t>未解锁=1，解锁时=2，解锁后=3</t>
+  </si>
+  <si>
+    <t>表示解锁状态</t>
   </si>
   <si>
     <t>追忆坐标人物移动表</t>
@@ -808,15 +696,185 @@
   <si>
     <t>表示人物为固定坐标或是会移动坐标</t>
   </si>
+  <si>
+    <t>追忆入口</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>操作说明</t>
+  </si>
+  <si>
+    <t>显示说明</t>
+  </si>
+  <si>
+    <t>修改备注</t>
+  </si>
+  <si>
+    <t>单击追忆图标，弹出追忆选择弹窗</t>
+  </si>
+  <si>
+    <t>若在追忆挂机时，则显示追忆动画；
+若追忆结束，奖励未领取，则显示追忆结算；
+若当前无可领取奖励，且不在挂机状态，则弹出选择弹窗</t>
+  </si>
+  <si>
+    <t>选择方式</t>
+  </si>
+  <si>
+    <t>标题及系统说明</t>
+  </si>
+  <si>
+    <t>显示标题及系统说明按钮</t>
+  </si>
+  <si>
+    <t>显示时长</t>
+  </si>
+  <si>
+    <t>关闭按钮</t>
+  </si>
+  <si>
+    <t>单击关闭弹窗</t>
+  </si>
+  <si>
+    <t>出行方式</t>
+  </si>
+  <si>
+    <t>显示出行方式名称及图标</t>
+  </si>
+  <si>
+    <t>出行信息</t>
+  </si>
+  <si>
+    <t>显示地点、可能获得的礼物及记忆信息</t>
+  </si>
+  <si>
+    <t>确定按钮</t>
+  </si>
+  <si>
+    <t>单击确定按钮，开始追忆</t>
+  </si>
+  <si>
+    <t>追忆动画</t>
+  </si>
+  <si>
+    <t>单击返回主界面</t>
+  </si>
+  <si>
+    <t>倒计时</t>
+  </si>
+  <si>
+    <t>显示距离结束时间</t>
+  </si>
+  <si>
+    <t>加速按钮</t>
+  </si>
+  <si>
+    <t>单击加速按钮，弹出使用道具弹窗</t>
+  </si>
+  <si>
+    <t>判断到玩家拥有加速道具，则显示加速按钮；
+判断到玩家未拥有加速道具，则不显示按钮。</t>
+  </si>
+  <si>
+    <t>场景动画</t>
+  </si>
+  <si>
+    <t>1.场景：根据选择显示不同地点的场景
+2.人物：根据配置表，随机2个人物移动，生成移动路线；每隔20s随机1个人物移动
+3.事件：当人物移动到位置B时，触发对话事件</t>
+  </si>
+  <si>
+    <t>每次进入动画界面时随机坐标点的人物动画及对话文本</t>
+  </si>
+  <si>
+    <t>使用加速道具</t>
+  </si>
+  <si>
+    <t>使用消耗信息</t>
+  </si>
+  <si>
+    <t>显示消耗提示文本、道具数量、道具需要着重颜色强调</t>
+  </si>
+  <si>
+    <t>单击确定按钮，使用道具加速，获取奖励</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>显示“追忆结束”</t>
+  </si>
+  <si>
+    <t>礼物道具图标</t>
+  </si>
+  <si>
+    <t>显示礼物道具图标及数量</t>
+  </si>
+  <si>
+    <t>记忆未解锁图标</t>
+  </si>
+  <si>
+    <t>显示记忆图标及未解锁标志</t>
+  </si>
+  <si>
+    <t>记忆已解锁图标</t>
+  </si>
+  <si>
+    <t>显示记忆图标</t>
+  </si>
+  <si>
+    <t>礼物道具信息</t>
+  </si>
+  <si>
+    <t>显示礼物名称、描述</t>
+  </si>
+  <si>
+    <t>拾光记忆未解锁信息</t>
+  </si>
+  <si>
+    <t>显示拾光记忆名称、未解锁描述</t>
+  </si>
+  <si>
+    <t>拾光记忆解锁信息</t>
+  </si>
+  <si>
+    <t>显示时光记忆名称、解锁提示、记忆信息文本</t>
+  </si>
+  <si>
+    <t>拾光记忆增加熟悉感信息</t>
+  </si>
+  <si>
+    <t>显示拾光记忆名称、熟悉度增加提示、记忆信息文本</t>
+  </si>
+  <si>
+    <t>提示返回</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>拾光记忆信息文本分为已解锁、未解锁、解锁</t>
+  </si>
+  <si>
+    <t>未解锁时，从未解锁文本中随机1个</t>
+  </si>
+  <si>
+    <t>已解锁时，从已解锁文本中随机1个</t>
+  </si>
+  <si>
+    <t>解锁时，固定1个文本</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -857,7 +915,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,31 +965,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,50 +996,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -962,16 +1011,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -985,16 +1034,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1029,7 +1087,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,7 +1243,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,163 +1267,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,8 +1284,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1243,45 +1310,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1316,7 +1344,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1328,10 +1386,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1340,141 +1398,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1489,14 +1544,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1578,20 +1645,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>305</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>340995</xdr:colOff>
-      <xdr:row>345</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18" descr="7%`5B}$)@_HGBZVS20{DIIL"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="T1$BLIYBM~Y28MBJE5@SNX6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1604,8 +1671,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2752725" y="47999650"/>
-          <a:ext cx="3427095" cy="6073775"/>
+          <a:off x="1381125" y="352425"/>
+          <a:ext cx="3419475" cy="6077585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1614,877 +1681,27 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>299720</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>124460</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15" descr="RI6JQ8UQBYXZ80JUT~6{FIF"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2705100" y="19278600"/>
-          <a:ext cx="3433445" cy="6068060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>334010</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>143510</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="T1$BLIYBM~Y28MBJE5@SNX6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2752725" y="4124325"/>
-          <a:ext cx="3420110" cy="6077585"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>103505</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>86995</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="组合 9"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2286000" y="20144105"/>
-          <a:ext cx="4429125" cy="897890"/>
-          <a:chOff x="4210" y="29683"/>
-          <a:chExt cx="6185" cy="1414"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="线形标注 1 3"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7545" y="29683"/>
-            <a:ext cx="540" cy="422"/>
-          </a:xfrm>
-          <a:prstGeom prst="borderCallout1">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-              <a:t>1</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="线形标注 1 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8670" y="29700"/>
-            <a:ext cx="540" cy="422"/>
-          </a:xfrm>
-          <a:prstGeom prst="borderCallout1">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-              <a:t>2</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="线形标注 1 5"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9855" y="29835"/>
-            <a:ext cx="540" cy="422"/>
-          </a:xfrm>
-          <a:prstGeom prst="borderCallout1">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 18750"/>
-              <a:gd name="adj2" fmla="val -8333"/>
-              <a:gd name="adj3" fmla="val 55687"/>
-              <a:gd name="adj4" fmla="val -57777"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-              <a:t>3</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="线形标注 1 6"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9675" y="30675"/>
-            <a:ext cx="540" cy="422"/>
-          </a:xfrm>
-          <a:prstGeom prst="borderCallout1">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-              <a:t>6</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="线形标注 1 7"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4210" y="30600"/>
-            <a:ext cx="540" cy="422"/>
-          </a:xfrm>
-          <a:prstGeom prst="borderCallout1">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 25829"/>
-              <a:gd name="adj2" fmla="val 102777"/>
-              <a:gd name="adj3" fmla="val 52132"/>
-              <a:gd name="adj4" fmla="val 153333"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-              <a:t>4</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="线形标注 1 8"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7515" y="30420"/>
-            <a:ext cx="540" cy="422"/>
-          </a:xfrm>
-          <a:prstGeom prst="borderCallout1">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-              <a:t>5</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>48895</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="线形标注 1 10"/>
+        <xdr:cNvPr id="3" name="线形标注 1 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6143625" y="9077325"/>
+          <a:off x="4743450" y="5276850"/>
           <a:ext cx="342900" cy="267970"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
@@ -2620,80 +1837,76 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>337820</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>680720</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPr id="4" name="图片 3" descr="RI6JQ8UQBYXZ80JUT~6{FIF"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="27965400"/>
-          <a:ext cx="3433445" cy="6086475"/>
+          <a:off x="1362075" y="7715250"/>
+          <a:ext cx="3433445" cy="6068060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>8255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>647065</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>48895</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="组合 19"/>
+        <xdr:cNvPr id="5" name="组合 4"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5934075" y="27813000"/>
-          <a:ext cx="551815" cy="6268720"/>
-          <a:chOff x="9405" y="43815"/>
-          <a:chExt cx="869" cy="9872"/>
+          <a:off x="942975" y="8580755"/>
+          <a:ext cx="4429125" cy="897890"/>
+          <a:chOff x="4210" y="29683"/>
+          <a:chExt cx="6185" cy="1414"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="线形标注 1 13"/>
+          <xdr:cNvPr id="6" name="线形标注 1 5"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9575" y="52355"/>
+            <a:off x="7545" y="29683"/>
             <a:ext cx="540" cy="422"/>
           </a:xfrm>
           <a:prstGeom prst="borderCallout1">
@@ -2819,6 +2032,921 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="线形标注 1 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8670" y="29700"/>
+            <a:ext cx="540" cy="422"/>
+          </a:xfrm>
+          <a:prstGeom prst="borderCallout1">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="线形标注 1 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9855" y="29835"/>
+            <a:ext cx="540" cy="422"/>
+          </a:xfrm>
+          <a:prstGeom prst="borderCallout1">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 18750"/>
+              <a:gd name="adj2" fmla="val -8333"/>
+              <a:gd name="adj3" fmla="val 55687"/>
+              <a:gd name="adj4" fmla="val -57777"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="线形标注 1 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9675" y="30675"/>
+            <a:ext cx="540" cy="422"/>
+          </a:xfrm>
+          <a:prstGeom prst="borderCallout1">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>6</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="线形标注 1 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4210" y="30600"/>
+            <a:ext cx="540" cy="422"/>
+          </a:xfrm>
+          <a:prstGeom prst="borderCallout1">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 25829"/>
+              <a:gd name="adj2" fmla="val 102777"/>
+              <a:gd name="adj3" fmla="val 52132"/>
+              <a:gd name="adj4" fmla="val 153333"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="线形标注 1 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7515" y="30420"/>
+            <a:ext cx="540" cy="422"/>
+          </a:xfrm>
+          <a:prstGeom prst="borderCallout1">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="14725650"/>
+          <a:ext cx="3433445" cy="6086475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="组合 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4552950" y="14382750"/>
+          <a:ext cx="571500" cy="6484620"/>
+          <a:chOff x="9405" y="43815"/>
+          <a:chExt cx="900" cy="9350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="线形标注 1 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9620" y="51929"/>
+            <a:ext cx="540" cy="422"/>
+          </a:xfrm>
+          <a:prstGeom prst="borderCallout1">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
               <a:t>2</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -2832,7 +2960,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9645" y="53265"/>
+            <a:off x="9765" y="52743"/>
             <a:ext cx="540" cy="422"/>
           </a:xfrm>
           <a:prstGeom prst="borderCallout1">
@@ -2971,7 +3099,7 @@
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="线形标注 1 16"/>
+          <xdr:cNvPr id="16" name="线形标注 1 15"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3110,7 +3238,7 @@
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="线形标注 1 17"/>
+          <xdr:cNvPr id="17" name="线形标注 1 16"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3252,33 +3380,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>234</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>283210</xdr:colOff>
-      <xdr:row>273</xdr:row>
-      <xdr:rowOff>132715</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>626110</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20" descr="Y]}WQF7XT}B~6Z_1LQOYPYO"/>
+        <xdr:cNvPr id="18" name="图片 17" descr="Y]}WQF7XT}B~6Z_1LQOYPYO"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2752725" y="37157025"/>
+          <a:off x="1371600" y="21837650"/>
           <a:ext cx="3369310" cy="5952490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3290,25 +3418,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1304925</xdr:colOff>
-      <xdr:row>246</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>253</xdr:row>
-      <xdr:rowOff>144145</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="组合 28"/>
+        <xdr:cNvPr id="19" name="组合 18"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4733925" y="38881050"/>
+          <a:off x="3352800" y="23561675"/>
           <a:ext cx="1247775" cy="1191895"/>
           <a:chOff x="7545" y="60795"/>
           <a:chExt cx="1965" cy="1877"/>
@@ -3316,7 +3444,7 @@
       </xdr:grpSpPr>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="线形标注 1 21"/>
+          <xdr:cNvPr id="20" name="线形标注 1 19"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3460,7 +3588,7 @@
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="线形标注 1 22"/>
+          <xdr:cNvPr id="21" name="线形标注 1 20"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3604,7 +3732,7 @@
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="线形标注 1 23"/>
+          <xdr:cNvPr id="22" name="线形标注 1 21"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3749,27 +3877,65 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200660</xdr:colOff>
-      <xdr:row>311</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>18415</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>837565</xdr:colOff>
-      <xdr:row>343</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>16510</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22" descr="7%`5B}$)@_HGBZVS20{DIIL"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390015" y="28705175"/>
+          <a:ext cx="3427095" cy="6073775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>513080</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="49" name="组合 48"/>
+        <xdr:cNvPr id="24" name="组合 23"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2258060" y="48872775"/>
+          <a:off x="895350" y="29578300"/>
           <a:ext cx="4418330" cy="4914900"/>
           <a:chOff x="4177" y="75195"/>
           <a:chExt cx="6157" cy="7741"/>
@@ -3777,7 +3943,7 @@
       </xdr:grpSpPr>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="线形标注 1 39"/>
+          <xdr:cNvPr id="25" name="线形标注 1 24"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3921,7 +4087,7 @@
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="线形标注 1 40"/>
+          <xdr:cNvPr id="26" name="线形标注 1 25"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4065,7 +4231,7 @@
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="42" name="线形标注 1 41"/>
+          <xdr:cNvPr id="27" name="线形标注 1 26"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4209,7 +4375,7 @@
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="线形标注 1 42"/>
+          <xdr:cNvPr id="28" name="线形标注 1 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4353,7 +4519,7 @@
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="线形标注 1 43"/>
+          <xdr:cNvPr id="29" name="线形标注 1 28"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4497,7 +4663,7 @@
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="线形标注 1 44"/>
+          <xdr:cNvPr id="30" name="线形标注 1 29"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4641,7 +4807,7 @@
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="线形标注 1 45"/>
+          <xdr:cNvPr id="31" name="线形标注 1 30"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4785,7 +4951,7 @@
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="线形标注 1 46"/>
+          <xdr:cNvPr id="32" name="线形标注 1 31"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4929,7 +5095,7 @@
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="线形标注 1 47"/>
+          <xdr:cNvPr id="33" name="线形标注 1 32"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5335,47 +5501,61 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:E4"/>
+  <dimension ref="B3:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5388,1831 +5568,2406 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:Q394"/>
+  <dimension ref="B3:Q150"/>
   <sheetViews>
-    <sheetView topLeftCell="B142" workbookViewId="0">
-      <selection activeCell="O325" sqref="O325"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="20.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="2"/>
-    <col min="9" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="29.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="20.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="1" customWidth="1"/>
+    <col min="9" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="29.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2">
-      <c r="B3" s="2" t="s">
-        <v>7</v>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8">
+      <c r="E29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="5:8">
+      <c r="E30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="5:8">
+      <c r="E31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="5:8">
+      <c r="E32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="5:8">
+      <c r="E33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="5:8">
+      <c r="E34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="5:8">
+      <c r="E35" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="13:13">
+      <c r="M47" s="7"/>
+    </row>
+    <row r="48" spans="6:7">
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="7:11">
+      <c r="G51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="7:11">
+      <c r="G52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="2">
+      <c r="J52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="7:11">
+      <c r="G53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" s="3">
+        <v>8</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="7:11">
+      <c r="G54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" s="3">
+        <v>6</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="7:11">
+      <c r="G55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H55" s="3">
+        <v>10</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="7:11">
+      <c r="G56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="3">
+        <v>10</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="7:11">
+      <c r="G57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57" s="3">
+        <v>14</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="7:8">
+      <c r="G58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8">
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="7:8">
+      <c r="G60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" s="3">
+        <f>SUM(H52:H58)/7</f>
+        <v>10.8571428571429</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8">
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="63" spans="6:7">
+      <c r="F63" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="7:7">
+      <c r="G64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7">
+      <c r="G65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="7:11">
+      <c r="G66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="7:11">
+      <c r="G67" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67" s="3">
+        <v>6</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="7:11">
+      <c r="G68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H68" s="3">
+        <v>6</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="7:11">
+      <c r="G69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H69" s="3">
+        <v>8</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="7:11">
+      <c r="G70" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H70" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8" s="2">
+      <c r="J70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="7:11">
+      <c r="G71" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H71" s="3">
+        <v>10</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="7:11">
+      <c r="G72" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H72" s="3">
+        <v>20</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="7:8">
+      <c r="G73" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H73" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8">
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="7:8">
+      <c r="G75" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H75" s="1">
+        <f>SUM(H67:H73)/7</f>
+        <v>10.5714285714286</v>
+      </c>
+    </row>
+    <row r="78" spans="6:7">
+      <c r="F78" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4">
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" s="2">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="2">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27" s="2">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="5:14">
-      <c r="E69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" ht="54" customHeight="1" spans="5:13">
-      <c r="E70" s="4">
-        <v>1</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-    </row>
-    <row r="75" spans="4:5">
-      <c r="D75" s="2">
-        <v>4</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="5:6">
-      <c r="E76" s="2">
-        <v>1</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="6:6">
-      <c r="F77" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="5:13">
-      <c r="E79" s="2">
-        <v>2</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M79" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80" spans="6:7">
-      <c r="F80" s="2">
-        <v>1</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="7:7">
+      <c r="G78" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="7:7">
+      <c r="G79" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="7:7">
+      <c r="G80" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="7:11">
       <c r="G81" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="7:7">
-      <c r="G82" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="7:11">
+      <c r="G82" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H82" s="3">
+        <v>6</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K82" s="3"/>
     </row>
     <row r="83" spans="7:11">
       <c r="G83" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>40</v>
+        <v>83</v>
+      </c>
+      <c r="H83" s="3">
+        <v>6</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="K83" s="3"/>
     </row>
     <row r="84" spans="7:11">
-      <c r="G84" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H84" s="4">
+      <c r="G84" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H84" s="3">
         <v>8</v>
       </c>
-      <c r="J84" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K84" s="4"/>
+      <c r="J84" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K84" s="3"/>
     </row>
     <row r="85" spans="7:11">
-      <c r="G85" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H85" s="4">
-        <v>8</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K85" s="4"/>
+      <c r="G85" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H85" s="3">
+        <v>10</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K85" s="3"/>
     </row>
     <row r="86" spans="7:11">
-      <c r="G86" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H86" s="4">
-        <v>6</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K86" s="4"/>
+      <c r="G86" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H86" s="3">
+        <v>14</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K86" s="3"/>
     </row>
     <row r="87" spans="7:11">
-      <c r="G87" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H87" s="4">
-        <v>10</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K87" s="4"/>
-    </row>
-    <row r="88" spans="7:11">
-      <c r="G88" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H88" s="4">
-        <v>10</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K88" s="4"/>
-    </row>
-    <row r="89" spans="7:11">
-      <c r="G89" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H89" s="4">
-        <v>14</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K89" s="4"/>
-    </row>
-    <row r="90" spans="7:8">
-      <c r="G90" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H90" s="4">
+      <c r="G87" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H87" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="7:8">
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="7:8">
-      <c r="G92" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H92" s="4">
-        <f>SUM(H84:H90)/7</f>
-        <v>10.8571428571429</v>
-      </c>
-    </row>
-    <row r="93" spans="7:8">
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-    </row>
-    <row r="95" spans="6:7">
-      <c r="F95" s="2">
+      <c r="J87" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K87" s="3"/>
+    </row>
+    <row r="89" spans="7:8">
+      <c r="G89" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H89" s="1">
+        <f>SUM(H82:H87)/6</f>
+        <v>10.6666666666667</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4">
+      <c r="C97" s="1">
+        <v>3</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5">
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5">
+      <c r="D100" s="1">
         <v>2</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="96" spans="7:7">
-      <c r="G96" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="97" spans="7:7">
-      <c r="G97" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="98" spans="7:11">
-      <c r="G98" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="7:11">
-      <c r="G99" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H99" s="4">
-        <v>6</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K99" s="4"/>
-    </row>
-    <row r="100" spans="7:11">
-      <c r="G100" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H100" s="4">
-        <v>6</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K100" s="4"/>
-    </row>
-    <row r="101" spans="7:11">
-      <c r="G101" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H101" s="4">
-        <v>8</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K101" s="4"/>
-    </row>
-    <row r="102" spans="7:11">
-      <c r="G102" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H102" s="4">
-        <v>10</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K102" s="4"/>
-    </row>
-    <row r="103" spans="7:11">
-      <c r="G103" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H103" s="4">
-        <v>10</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K103" s="4"/>
-    </row>
-    <row r="104" spans="7:11">
-      <c r="G104" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H104" s="4">
-        <v>20</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K104" s="4"/>
-    </row>
-    <row r="105" spans="7:8">
-      <c r="G105" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H105" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="7:8">
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="7:8">
-      <c r="G107" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H107" s="2">
-        <f>SUM(H99:H105)/7</f>
-        <v>10.5714285714286</v>
-      </c>
-    </row>
-    <row r="110" spans="6:7">
-      <c r="F110" s="2">
+      <c r="E100" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5">
+      <c r="D102" s="1">
         <v>3</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="111" spans="7:7">
-      <c r="G111" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="112" spans="7:7">
-      <c r="G112" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="113" spans="7:11">
-      <c r="G113" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K113" s="3"/>
-    </row>
-    <row r="114" spans="7:11">
-      <c r="G114" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H114" s="4">
-        <v>6</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K114" s="4"/>
-    </row>
-    <row r="115" spans="7:11">
-      <c r="G115" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H115" s="4">
-        <v>6</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K115" s="4"/>
-    </row>
-    <row r="116" spans="7:11">
-      <c r="G116" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H116" s="4">
-        <v>8</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K116" s="4"/>
-    </row>
-    <row r="117" spans="7:11">
-      <c r="G117" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H117" s="4">
-        <v>10</v>
-      </c>
-      <c r="J117" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K117" s="4"/>
-    </row>
-    <row r="118" spans="7:11">
-      <c r="G118" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H118" s="4">
-        <v>14</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K118" s="4"/>
-    </row>
-    <row r="119" spans="7:11">
-      <c r="G119" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H119" s="4">
-        <v>20</v>
-      </c>
-      <c r="J119" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K119" s="4"/>
-    </row>
-    <row r="121" spans="7:8">
-      <c r="G121" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H121" s="2">
-        <f>SUM(H114:H119)/6</f>
-        <v>10.6666666666667</v>
-      </c>
-    </row>
-    <row r="166" spans="5:14">
-      <c r="E166" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3" t="s">
+      <c r="E102" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="5:11">
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K166" s="3"/>
-      <c r="L166" s="3"/>
-      <c r="M166" s="3"/>
-      <c r="N166" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="167" spans="5:14">
-      <c r="E167" s="4">
+      <c r="G103" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="5:11">
+      <c r="E104" s="1">
+        <v>2</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5">
+      <c r="D107" s="1">
+        <v>4</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6">
+      <c r="E108" s="1">
         <v>1</v>
       </c>
-      <c r="F167" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G167" s="4"/>
-      <c r="H167" s="4"/>
-      <c r="I167" s="4"/>
-      <c r="J167" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K167" s="7"/>
-      <c r="L167" s="7"/>
-      <c r="M167" s="7"/>
-      <c r="N167" s="4"/>
-    </row>
-    <row r="168" spans="5:13">
-      <c r="E168" s="4">
+      <c r="F108" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6">
+      <c r="F109" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6">
+      <c r="E111" s="1">
         <v>2</v>
       </c>
-      <c r="F168" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
-      <c r="I168" s="4"/>
-      <c r="J168" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K168" s="7"/>
-      <c r="L168" s="7"/>
-      <c r="M168" s="7"/>
-    </row>
-    <row r="169" spans="5:13">
-      <c r="E169" s="4">
+      <c r="F111" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6">
+      <c r="F112" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6">
+      <c r="F113" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" s="1">
+        <v>4</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5">
+      <c r="D119" s="1">
+        <v>1</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="120" spans="5:17">
+      <c r="E120" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+    </row>
+    <row r="121" spans="5:17">
+      <c r="E121" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+    </row>
+    <row r="122" spans="5:17">
+      <c r="E122" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+    </row>
+    <row r="123" spans="5:17">
+      <c r="E123" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+    </row>
+    <row r="124" spans="5:17">
+      <c r="E124" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
+    </row>
+    <row r="125" spans="5:17">
+      <c r="E125" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+    </row>
+    <row r="126" spans="5:17">
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+    </row>
+    <row r="127" spans="9:17">
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5"/>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+    </row>
+    <row r="128" spans="9:17">
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+    </row>
+    <row r="129" spans="4:17">
+      <c r="D129" s="1">
+        <v>2</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+    </row>
+    <row r="130" spans="5:17">
+      <c r="E130" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+    </row>
+    <row r="131" s="8" customFormat="1" spans="5:17">
+      <c r="E131" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="N131" s="16"/>
+      <c r="O131" s="16"/>
+      <c r="P131" s="16"/>
+      <c r="Q131" s="16"/>
+    </row>
+    <row r="132" spans="5:17">
+      <c r="E132" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="N132" s="5"/>
+      <c r="O132" s="5"/>
+      <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
+    </row>
+    <row r="133" spans="5:17">
+      <c r="E133" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N133" s="5"/>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+    </row>
+    <row r="134" ht="26" customHeight="1" spans="5:17">
+      <c r="E134" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="N134" s="5"/>
+      <c r="O134" s="5"/>
+      <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
+    </row>
+    <row r="135" spans="5:17">
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
+    </row>
+    <row r="138" spans="4:5">
+      <c r="D138" s="1">
         <v>3</v>
       </c>
-      <c r="F169" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H169" s="4"/>
-      <c r="I169" s="4"/>
-      <c r="J169" s="7"/>
-      <c r="K169" s="7"/>
-      <c r="L169" s="7"/>
-      <c r="M169" s="7"/>
-    </row>
-    <row r="170" spans="5:13">
-      <c r="E170" s="4">
+      <c r="E138" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="139" spans="5:17">
+      <c r="E139" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H139" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" s="2"/>
+    </row>
+    <row r="140" spans="5:17">
+      <c r="E140" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
+      <c r="M140" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N140" s="5"/>
+      <c r="O140" s="5"/>
+      <c r="P140" s="5"/>
+      <c r="Q140" s="5"/>
+    </row>
+    <row r="141" spans="5:17">
+      <c r="E141" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
+      <c r="M141" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+    </row>
+    <row r="142" ht="31" customHeight="1" spans="5:17">
+      <c r="E142" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+    </row>
+    <row r="143" spans="5:17">
+      <c r="E143" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
+      <c r="M143" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+    </row>
+    <row r="146" spans="4:5">
+      <c r="D146" s="1">
         <v>4</v>
       </c>
-      <c r="F170" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
-      <c r="I170" s="4"/>
-      <c r="J170" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K170" s="7"/>
-      <c r="L170" s="7"/>
-      <c r="M170" s="7"/>
-    </row>
-    <row r="171" spans="5:13">
-      <c r="E171" s="4">
-        <v>5</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G171" s="4"/>
-      <c r="H171" s="4"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K171" s="7"/>
-      <c r="L171" s="7"/>
-      <c r="M171" s="7"/>
-    </row>
-    <row r="172" spans="5:13">
-      <c r="E172" s="4">
-        <v>6</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H172" s="4"/>
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
-      <c r="K172" s="4"/>
-      <c r="L172" s="4"/>
-      <c r="M172" s="4"/>
-    </row>
-    <row r="175" spans="4:5">
-      <c r="D175" s="2">
-        <v>5</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="176" spans="5:6">
-      <c r="E176" s="2">
-        <v>1</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="178" spans="5:6">
-      <c r="E178" s="2">
-        <v>2</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="223" spans="5:14">
-      <c r="E223" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F223" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G223" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
-      <c r="J223" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K223" s="3"/>
-      <c r="L223" s="3"/>
-      <c r="M223" s="3"/>
-      <c r="N223" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="224" spans="5:14">
-      <c r="E224" s="4">
-        <v>1</v>
-      </c>
-      <c r="F224" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G224" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H224" s="4"/>
-      <c r="I224" s="4"/>
-      <c r="J224" s="7"/>
-      <c r="K224" s="7"/>
-      <c r="L224" s="7"/>
-      <c r="M224" s="7"/>
-      <c r="N224" s="4"/>
-    </row>
-    <row r="225" spans="5:13">
-      <c r="E225" s="4">
-        <v>2</v>
-      </c>
-      <c r="F225" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G225" s="4"/>
-      <c r="H225" s="4"/>
-      <c r="I225" s="4"/>
-      <c r="J225" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K225" s="7"/>
-      <c r="L225" s="7"/>
-      <c r="M225" s="7"/>
-    </row>
-    <row r="226" ht="30" customHeight="1" spans="5:13">
-      <c r="E226" s="4">
-        <v>3</v>
-      </c>
-      <c r="F226" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G226" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H226" s="4"/>
-      <c r="I226" s="4"/>
-      <c r="J226" s="8" t="s">
+      <c r="E146" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="5:17">
+      <c r="E147" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="K226" s="7"/>
-      <c r="L226" s="7"/>
-      <c r="M226" s="7"/>
-    </row>
-    <row r="227" ht="60" customHeight="1" spans="5:14">
-      <c r="E227" s="4">
-        <v>4</v>
-      </c>
-      <c r="F227" s="4" t="s">
+      <c r="F147" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G227" s="4"/>
-      <c r="H227" s="4"/>
-      <c r="I227" s="4"/>
-      <c r="J227" s="8" t="s">
+      <c r="G147" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="K227" s="7"/>
-      <c r="L227" s="7"/>
-      <c r="M227" s="7"/>
-      <c r="N227" s="6" t="s">
+      <c r="H147" s="12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="231" spans="4:5">
-      <c r="D231" s="2">
-        <v>6</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="232" spans="5:6">
-      <c r="E232" s="2">
-        <v>1</v>
-      </c>
-      <c r="F232" s="2" t="s">
+      <c r="I147" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="233" spans="6:6">
-      <c r="F233" s="2" t="s">
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="277" spans="5:14">
-      <c r="E277" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F277" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G277" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H277" s="3"/>
-      <c r="I277" s="3"/>
-      <c r="J277" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K277" s="3"/>
-      <c r="L277" s="3"/>
-      <c r="M277" s="3"/>
-      <c r="N277" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="278" spans="5:14">
-      <c r="E278" s="4">
-        <v>1</v>
-      </c>
-      <c r="F278" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G278" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H278" s="4"/>
-      <c r="I278" s="4"/>
-      <c r="J278" s="7"/>
-      <c r="K278" s="7"/>
-      <c r="L278" s="7"/>
-      <c r="M278" s="7"/>
-      <c r="N278" s="4"/>
-    </row>
-    <row r="279" spans="5:13">
-      <c r="E279" s="4">
-        <v>2</v>
-      </c>
-      <c r="F279" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G279" s="4"/>
-      <c r="H279" s="4"/>
-      <c r="I279" s="4"/>
-      <c r="J279" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K279" s="4"/>
-      <c r="L279" s="4"/>
-      <c r="M279" s="4"/>
-    </row>
-    <row r="280" spans="5:13">
-      <c r="E280" s="4">
-        <v>3</v>
-      </c>
-      <c r="F280" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G280" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H280" s="4"/>
-      <c r="I280" s="4"/>
-      <c r="J280" s="4"/>
-      <c r="K280" s="4"/>
-      <c r="L280" s="4"/>
-      <c r="M280" s="4"/>
-    </row>
-    <row r="284" spans="4:5">
-      <c r="D284" s="2">
-        <v>7</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="285" spans="5:6">
-      <c r="E285" s="2">
-        <v>1</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="287" spans="5:6">
-      <c r="E287" s="2">
-        <v>2</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="289" spans="5:6">
-      <c r="E289" s="2">
-        <v>3</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="290" spans="6:6">
-      <c r="F290" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="292" spans="6:6">
-      <c r="F292" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="293" spans="6:6">
-      <c r="F293" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="295" spans="5:6">
-      <c r="E295" s="2">
-        <v>4</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="296" spans="6:7">
-      <c r="F296" s="2">
-        <v>1</v>
-      </c>
-      <c r="G296" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="297" spans="7:7">
-      <c r="G297" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="299" spans="6:6">
-      <c r="F299" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="300" spans="6:6">
-      <c r="F300" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="302" spans="5:6">
-      <c r="E302" s="2">
-        <v>5</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="303" spans="6:6">
-      <c r="F303" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="304" spans="6:6">
-      <c r="F304" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="305" spans="6:6">
-      <c r="F305" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="350" spans="5:14">
-      <c r="E350" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F350" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G350" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H350" s="3"/>
-      <c r="I350" s="3"/>
-      <c r="J350" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K350" s="3"/>
-      <c r="L350" s="3"/>
-      <c r="M350" s="3"/>
-      <c r="N350" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="351" spans="5:14">
-      <c r="E351" s="4">
-        <v>1</v>
-      </c>
-      <c r="F351" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G351" s="4"/>
-      <c r="H351" s="4"/>
-      <c r="I351" s="4"/>
-      <c r="J351" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K351" s="7"/>
-      <c r="L351" s="7"/>
-      <c r="M351" s="7"/>
-      <c r="N351" s="4"/>
-    </row>
-    <row r="352" spans="5:13">
-      <c r="E352" s="4">
-        <v>2</v>
-      </c>
-      <c r="F352" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G352" s="4"/>
-      <c r="H352" s="4"/>
-      <c r="I352" s="4"/>
-      <c r="J352" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K352" s="7"/>
-      <c r="L352" s="7"/>
-      <c r="M352" s="7"/>
-    </row>
-    <row r="353" spans="5:13">
-      <c r="E353" s="4">
-        <v>3</v>
-      </c>
-      <c r="F353" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G353" s="4"/>
-      <c r="H353" s="4"/>
-      <c r="I353" s="4"/>
-      <c r="J353" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K353" s="7"/>
-      <c r="L353" s="7"/>
-      <c r="M353" s="7"/>
-    </row>
-    <row r="354" spans="5:13">
-      <c r="E354" s="4">
-        <v>4</v>
-      </c>
-      <c r="F354" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G354" s="4"/>
-      <c r="H354" s="4"/>
-      <c r="I354" s="4"/>
-      <c r="J354" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K354" s="7"/>
-      <c r="L354" s="7"/>
-      <c r="M354" s="7"/>
-    </row>
-    <row r="355" spans="5:13">
-      <c r="E355" s="4">
-        <v>5</v>
-      </c>
-      <c r="F355" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G355" s="4"/>
-      <c r="H355" s="4"/>
-      <c r="I355" s="4"/>
-      <c r="J355" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K355" s="7"/>
-      <c r="L355" s="7"/>
-      <c r="M355" s="7"/>
-    </row>
-    <row r="356" spans="5:13">
-      <c r="E356" s="4">
-        <v>6</v>
-      </c>
-      <c r="F356" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G356" s="4"/>
-      <c r="H356" s="4"/>
-      <c r="I356" s="4"/>
-      <c r="J356" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K356" s="7"/>
-      <c r="L356" s="7"/>
-      <c r="M356" s="7"/>
-    </row>
-    <row r="357" spans="5:13">
-      <c r="E357" s="4">
-        <v>7</v>
-      </c>
-      <c r="F357" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G357" s="4"/>
-      <c r="H357" s="4"/>
-      <c r="I357" s="4"/>
-      <c r="J357" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K357" s="7"/>
-      <c r="L357" s="7"/>
-      <c r="M357" s="7"/>
-    </row>
-    <row r="358" spans="5:13">
-      <c r="E358" s="4">
-        <v>8</v>
-      </c>
-      <c r="F358" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G358" s="4"/>
-      <c r="H358" s="4"/>
-      <c r="I358" s="4"/>
-      <c r="J358" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K358" s="7"/>
-      <c r="L358" s="7"/>
-      <c r="M358" s="7"/>
-    </row>
-    <row r="359" spans="5:13">
-      <c r="E359" s="4">
-        <v>9</v>
-      </c>
-      <c r="F359" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G359" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H359" s="4"/>
-      <c r="I359" s="4"/>
-      <c r="J359" s="7"/>
-      <c r="K359" s="7"/>
-      <c r="L359" s="7"/>
-      <c r="M359" s="7"/>
-    </row>
-    <row r="365" spans="2:3">
-      <c r="B365" s="2">
-        <v>4</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="366" spans="4:5">
-      <c r="D366" s="2">
-        <v>1</v>
-      </c>
-      <c r="E366" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="367" spans="5:17">
-      <c r="E367" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F367" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G367" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H367" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I367" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J367" s="3"/>
-      <c r="K367" s="3"/>
-      <c r="L367" s="3"/>
-      <c r="M367" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N367" s="3"/>
-      <c r="O367" s="3"/>
-      <c r="P367" s="3"/>
-      <c r="Q367" s="3"/>
-    </row>
-    <row r="368" spans="5:17">
-      <c r="E368" s="4" t="s">
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+    </row>
+    <row r="148" ht="34" customHeight="1" spans="5:17">
+      <c r="E148" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F368" s="4" t="s">
+      <c r="F148" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I368" s="4" t="s">
+      <c r="I148" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J368" s="4"/>
-      <c r="K368" s="4"/>
-      <c r="L368" s="4"/>
-      <c r="M368" s="7" t="s">
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="N368" s="7"/>
-      <c r="O368" s="7"/>
-      <c r="P368" s="7"/>
-      <c r="Q368" s="7"/>
-    </row>
-    <row r="369" spans="5:17">
-      <c r="E369" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F369" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I369" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J369" s="4"/>
-      <c r="K369" s="4"/>
-      <c r="L369" s="4"/>
-      <c r="M369" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="N369" s="7"/>
-      <c r="O369" s="7"/>
-      <c r="P369" s="7"/>
-      <c r="Q369" s="7"/>
-    </row>
-    <row r="370" spans="5:17">
-      <c r="E370" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F370" s="4" t="s">
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3"/>
+    </row>
+    <row r="149" spans="5:17">
+      <c r="E149" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I370" s="4" t="s">
+      <c r="F149" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="J370" s="4"/>
-      <c r="K370" s="4"/>
-      <c r="L370" s="4"/>
-      <c r="M370" s="7" t="s">
+      <c r="I149" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="N370" s="7"/>
-      <c r="O370" s="7"/>
-      <c r="P370" s="7"/>
-      <c r="Q370" s="7"/>
-    </row>
-    <row r="371" spans="5:17">
-      <c r="E371" s="4"/>
-      <c r="F371" s="4"/>
-      <c r="I371" s="4"/>
-      <c r="J371" s="4"/>
-      <c r="K371" s="4"/>
-      <c r="L371" s="4"/>
-      <c r="M371" s="7"/>
-      <c r="N371" s="7"/>
-      <c r="O371" s="7"/>
-      <c r="P371" s="7"/>
-      <c r="Q371" s="7"/>
-    </row>
-    <row r="372" spans="9:17">
-      <c r="I372" s="4"/>
-      <c r="J372" s="4"/>
-      <c r="K372" s="4"/>
-      <c r="L372" s="4"/>
-      <c r="M372" s="4"/>
-      <c r="N372" s="4"/>
-      <c r="O372" s="4"/>
-      <c r="P372" s="4"/>
-      <c r="Q372" s="4"/>
-    </row>
-    <row r="373" spans="4:17">
-      <c r="D373" s="2">
-        <v>2</v>
-      </c>
-      <c r="E373" s="2" t="s">
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I373" s="4"/>
-      <c r="J373" s="4"/>
-      <c r="K373" s="4"/>
-      <c r="L373" s="4"/>
-      <c r="M373" s="4"/>
-      <c r="N373" s="4"/>
-      <c r="O373" s="4"/>
-      <c r="P373" s="4"/>
-      <c r="Q373" s="4"/>
-    </row>
-    <row r="374" spans="5:17">
-      <c r="E374" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F374" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G374" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H374" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I374" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J374" s="3"/>
-      <c r="K374" s="3"/>
-      <c r="L374" s="3"/>
-      <c r="M374" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N374" s="3"/>
-      <c r="O374" s="3"/>
-      <c r="P374" s="3"/>
-      <c r="Q374" s="3"/>
-    </row>
-    <row r="375" s="1" customFormat="1" spans="5:17">
-      <c r="E375" s="4" t="s">
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+      <c r="P149" s="3"/>
+      <c r="Q149" s="3"/>
+    </row>
+    <row r="150" spans="5:17">
+      <c r="E150" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F375" s="4" t="s">
+      <c r="F150" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G375" s="10"/>
-      <c r="H375" s="10"/>
-      <c r="I375" s="11" t="s">
+      <c r="I150" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J375" s="11"/>
-      <c r="K375" s="11"/>
-      <c r="L375" s="11"/>
-      <c r="M375" s="12" t="s">
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
+      <c r="M150" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="N375" s="13"/>
-      <c r="O375" s="13"/>
-      <c r="P375" s="13"/>
-      <c r="Q375" s="13"/>
-    </row>
-    <row r="376" spans="5:17">
-      <c r="E376" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F376" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I376" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="J376" s="4"/>
-      <c r="K376" s="4"/>
-      <c r="L376" s="4"/>
-      <c r="M376" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="N376" s="7"/>
-      <c r="O376" s="7"/>
-      <c r="P376" s="7"/>
-      <c r="Q376" s="7"/>
-    </row>
-    <row r="377" spans="5:17">
-      <c r="E377" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F377" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I377" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J377" s="4"/>
-      <c r="K377" s="4"/>
-      <c r="L377" s="4"/>
-      <c r="M377" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="N377" s="7"/>
-      <c r="O377" s="7"/>
-      <c r="P377" s="7"/>
-      <c r="Q377" s="7"/>
-    </row>
-    <row r="378" ht="26" customHeight="1" spans="5:17">
-      <c r="E378" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F378" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I378" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="J378" s="4"/>
-      <c r="K378" s="4"/>
-      <c r="L378" s="4"/>
-      <c r="M378" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="N378" s="7"/>
-      <c r="O378" s="7"/>
-      <c r="P378" s="7"/>
-      <c r="Q378" s="7"/>
-    </row>
-    <row r="379" spans="5:17">
-      <c r="E379" s="4"/>
-      <c r="F379" s="4"/>
-      <c r="I379" s="4"/>
-      <c r="J379" s="4"/>
-      <c r="K379" s="4"/>
-      <c r="L379" s="4"/>
-      <c r="M379" s="7"/>
-      <c r="N379" s="7"/>
-      <c r="O379" s="7"/>
-      <c r="P379" s="7"/>
-      <c r="Q379" s="7"/>
-    </row>
-    <row r="382" spans="4:5">
-      <c r="D382" s="2">
-        <v>3</v>
-      </c>
-      <c r="E382" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="383" spans="5:17">
-      <c r="E383" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F383" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G383" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H383" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I383" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J383" s="3"/>
-      <c r="K383" s="3"/>
-      <c r="L383" s="3"/>
-      <c r="M383" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N383" s="3"/>
-      <c r="O383" s="3"/>
-      <c r="P383" s="3"/>
-      <c r="Q383" s="3"/>
-    </row>
-    <row r="384" spans="5:17">
-      <c r="E384" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F384" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="I384" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="J384" s="4"/>
-      <c r="K384" s="4"/>
-      <c r="L384" s="4"/>
-      <c r="M384" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="N384" s="7"/>
-      <c r="O384" s="7"/>
-      <c r="P384" s="7"/>
-      <c r="Q384" s="7"/>
-    </row>
-    <row r="385" spans="5:17">
-      <c r="E385" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F385" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I385" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J385" s="4"/>
-      <c r="K385" s="4"/>
-      <c r="L385" s="4"/>
-      <c r="M385" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="N385" s="7"/>
-      <c r="O385" s="7"/>
-      <c r="P385" s="7"/>
-      <c r="Q385" s="7"/>
-    </row>
-    <row r="386" ht="31" customHeight="1" spans="5:17">
-      <c r="E386" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F386" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="I386" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="J386" s="4"/>
-      <c r="K386" s="4"/>
-      <c r="L386" s="4"/>
-      <c r="M386" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="N386" s="7"/>
-      <c r="O386" s="7"/>
-      <c r="P386" s="7"/>
-      <c r="Q386" s="7"/>
-    </row>
-    <row r="387" spans="5:17">
-      <c r="E387" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F387" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I387" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J387" s="4"/>
-      <c r="K387" s="4"/>
-      <c r="L387" s="4"/>
-      <c r="M387" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="N387" s="7"/>
-      <c r="O387" s="7"/>
-      <c r="P387" s="7"/>
-      <c r="Q387" s="7"/>
-    </row>
-    <row r="390" spans="4:5">
-      <c r="D390" s="2">
-        <v>4</v>
-      </c>
-      <c r="E390" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="391" spans="5:17">
-      <c r="E391" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F391" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G391" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H391" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I391" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J391" s="3"/>
-      <c r="K391" s="3"/>
-      <c r="L391" s="3"/>
-      <c r="M391" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N391" s="3"/>
-      <c r="O391" s="3"/>
-      <c r="P391" s="3"/>
-      <c r="Q391" s="3"/>
-    </row>
-    <row r="392" ht="34" customHeight="1" spans="5:17">
-      <c r="E392" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F392" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="I392" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="J392" s="4"/>
-      <c r="K392" s="4"/>
-      <c r="L392" s="4"/>
-      <c r="M392" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N392" s="4"/>
-      <c r="O392" s="4"/>
-      <c r="P392" s="4"/>
-      <c r="Q392" s="4"/>
-    </row>
-    <row r="393" spans="5:17">
-      <c r="E393" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F393" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="I393" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="J393" s="4"/>
-      <c r="K393" s="4"/>
-      <c r="L393" s="4"/>
-      <c r="M393" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="N393" s="4"/>
-      <c r="O393" s="4"/>
-      <c r="P393" s="4"/>
-      <c r="Q393" s="4"/>
-    </row>
-    <row r="394" spans="5:17">
-      <c r="E394" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F394" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="I394" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J394" s="4"/>
-      <c r="K394" s="4"/>
-      <c r="L394" s="4"/>
-      <c r="M394" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="N394" s="4"/>
-      <c r="O394" s="4"/>
-      <c r="P394" s="4"/>
-      <c r="Q394" s="4"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="121">
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="J70:M70"/>
+  <mergeCells count="76">
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J82:K82"/>
     <mergeCell ref="J83:K83"/>
     <mergeCell ref="J84:K84"/>
     <mergeCell ref="J85:K85"/>
     <mergeCell ref="J86:K86"/>
     <mergeCell ref="J87:K87"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="G166:I166"/>
-    <mergeCell ref="J166:M166"/>
-    <mergeCell ref="G167:I167"/>
-    <mergeCell ref="J167:M167"/>
-    <mergeCell ref="G168:I168"/>
-    <mergeCell ref="J168:M168"/>
-    <mergeCell ref="G169:I169"/>
-    <mergeCell ref="J169:M169"/>
-    <mergeCell ref="G170:I170"/>
-    <mergeCell ref="J170:M170"/>
-    <mergeCell ref="G171:I171"/>
-    <mergeCell ref="J171:M171"/>
-    <mergeCell ref="G172:I172"/>
-    <mergeCell ref="J172:M172"/>
-    <mergeCell ref="G223:I223"/>
-    <mergeCell ref="J223:M223"/>
-    <mergeCell ref="G224:I224"/>
-    <mergeCell ref="J224:M224"/>
-    <mergeCell ref="G225:I225"/>
-    <mergeCell ref="J225:M225"/>
-    <mergeCell ref="G226:I226"/>
-    <mergeCell ref="J226:M226"/>
-    <mergeCell ref="G227:I227"/>
-    <mergeCell ref="J227:M227"/>
-    <mergeCell ref="G277:I277"/>
-    <mergeCell ref="J277:M277"/>
-    <mergeCell ref="G278:I278"/>
-    <mergeCell ref="J278:M278"/>
-    <mergeCell ref="G279:I279"/>
-    <mergeCell ref="J279:M279"/>
-    <mergeCell ref="G280:I280"/>
-    <mergeCell ref="J280:M280"/>
-    <mergeCell ref="G350:I350"/>
-    <mergeCell ref="J350:M350"/>
-    <mergeCell ref="G351:I351"/>
-    <mergeCell ref="J351:M351"/>
-    <mergeCell ref="G352:I352"/>
-    <mergeCell ref="J352:M352"/>
-    <mergeCell ref="G353:I353"/>
-    <mergeCell ref="J353:M353"/>
-    <mergeCell ref="G354:I354"/>
-    <mergeCell ref="J354:M354"/>
-    <mergeCell ref="G355:I355"/>
-    <mergeCell ref="J355:M355"/>
-    <mergeCell ref="G356:I356"/>
-    <mergeCell ref="J356:M356"/>
-    <mergeCell ref="G357:I357"/>
-    <mergeCell ref="J357:M357"/>
-    <mergeCell ref="G358:I358"/>
-    <mergeCell ref="J358:M358"/>
-    <mergeCell ref="G359:I359"/>
-    <mergeCell ref="J359:M359"/>
-    <mergeCell ref="I367:L367"/>
-    <mergeCell ref="M367:Q367"/>
-    <mergeCell ref="I368:L368"/>
-    <mergeCell ref="M368:Q368"/>
-    <mergeCell ref="I369:L369"/>
-    <mergeCell ref="M369:Q369"/>
-    <mergeCell ref="I370:L370"/>
-    <mergeCell ref="M370:Q370"/>
-    <mergeCell ref="I371:L371"/>
-    <mergeCell ref="M371:Q371"/>
-    <mergeCell ref="I372:L372"/>
-    <mergeCell ref="M372:Q372"/>
-    <mergeCell ref="I373:L373"/>
-    <mergeCell ref="M373:Q373"/>
-    <mergeCell ref="I374:L374"/>
-    <mergeCell ref="M374:Q374"/>
-    <mergeCell ref="I375:L375"/>
-    <mergeCell ref="M375:Q375"/>
-    <mergeCell ref="I376:L376"/>
-    <mergeCell ref="M376:Q376"/>
-    <mergeCell ref="I377:L377"/>
-    <mergeCell ref="M377:Q377"/>
-    <mergeCell ref="I378:L378"/>
-    <mergeCell ref="M378:Q378"/>
-    <mergeCell ref="I379:L379"/>
-    <mergeCell ref="M379:Q379"/>
-    <mergeCell ref="I383:L383"/>
-    <mergeCell ref="M383:Q383"/>
-    <mergeCell ref="I384:L384"/>
-    <mergeCell ref="M384:Q384"/>
-    <mergeCell ref="I385:L385"/>
-    <mergeCell ref="M385:Q385"/>
-    <mergeCell ref="I386:L386"/>
-    <mergeCell ref="M386:Q386"/>
-    <mergeCell ref="I387:L387"/>
-    <mergeCell ref="M387:Q387"/>
-    <mergeCell ref="I391:L391"/>
-    <mergeCell ref="M391:Q391"/>
-    <mergeCell ref="I392:L392"/>
-    <mergeCell ref="M392:Q392"/>
-    <mergeCell ref="I393:L393"/>
-    <mergeCell ref="M393:Q393"/>
-    <mergeCell ref="I394:L394"/>
-    <mergeCell ref="M394:Q394"/>
+    <mergeCell ref="I120:L120"/>
+    <mergeCell ref="M120:Q120"/>
+    <mergeCell ref="I121:L121"/>
+    <mergeCell ref="M121:Q121"/>
+    <mergeCell ref="I122:L122"/>
+    <mergeCell ref="M122:Q122"/>
+    <mergeCell ref="I123:L123"/>
+    <mergeCell ref="M123:Q123"/>
+    <mergeCell ref="I124:L124"/>
+    <mergeCell ref="M124:Q124"/>
+    <mergeCell ref="I125:L125"/>
+    <mergeCell ref="M125:Q125"/>
+    <mergeCell ref="I127:L127"/>
+    <mergeCell ref="M127:Q127"/>
+    <mergeCell ref="I128:L128"/>
+    <mergeCell ref="M128:Q128"/>
+    <mergeCell ref="I129:L129"/>
+    <mergeCell ref="M129:Q129"/>
+    <mergeCell ref="I130:L130"/>
+    <mergeCell ref="M130:Q130"/>
+    <mergeCell ref="I131:L131"/>
+    <mergeCell ref="M131:Q131"/>
+    <mergeCell ref="I132:L132"/>
+    <mergeCell ref="M132:Q132"/>
+    <mergeCell ref="I133:L133"/>
+    <mergeCell ref="M133:Q133"/>
+    <mergeCell ref="I134:L134"/>
+    <mergeCell ref="M134:Q134"/>
+    <mergeCell ref="I135:L135"/>
+    <mergeCell ref="M135:Q135"/>
+    <mergeCell ref="I139:L139"/>
+    <mergeCell ref="M139:Q139"/>
+    <mergeCell ref="I140:L140"/>
+    <mergeCell ref="M140:Q140"/>
+    <mergeCell ref="I141:L141"/>
+    <mergeCell ref="M141:Q141"/>
+    <mergeCell ref="I142:L142"/>
+    <mergeCell ref="M142:Q142"/>
+    <mergeCell ref="I143:L143"/>
+    <mergeCell ref="M143:Q143"/>
+    <mergeCell ref="I147:L147"/>
+    <mergeCell ref="M147:Q147"/>
+    <mergeCell ref="I148:L148"/>
+    <mergeCell ref="M148:Q148"/>
+    <mergeCell ref="I149:L149"/>
+    <mergeCell ref="M149:Q149"/>
+    <mergeCell ref="I150:L150"/>
+    <mergeCell ref="M150:Q150"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="M79" location="策划案!E284" display="获取结果跳转追忆结果"/>
-    <hyperlink ref="N227" location="策划案!E373" display="配置表跳转"/>
-  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:S177"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N179" sqref="N179"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="11" max="11" width="19.125" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="14" max="14" width="11.125" customWidth="1"/>
+    <col min="16" max="18" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="3:19">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" ht="54" customHeight="1" spans="3:18">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="3:19">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="10:19">
+      <c r="J44" s="3">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="3"/>
+    </row>
+    <row r="45" spans="10:18">
+      <c r="J45" s="3">
+        <v>2</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="10:18">
+      <c r="J46" s="3">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+    </row>
+    <row r="47" spans="10:18">
+      <c r="J47" s="3">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+    </row>
+    <row r="48" spans="10:18">
+      <c r="J48" s="3">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+    </row>
+    <row r="49" spans="10:18">
+      <c r="J49" s="3">
+        <v>6</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="10:19">
+      <c r="J84" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="10:19">
+      <c r="J85" s="3">
+        <v>1</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="3"/>
+    </row>
+    <row r="86" spans="10:19">
+      <c r="J86" s="3">
+        <v>2</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="10:19">
+      <c r="J87" s="3">
+        <v>3</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" ht="59" customHeight="1" spans="10:19">
+      <c r="J88" s="3">
+        <v>4</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="7"/>
+    </row>
+    <row r="89" spans="15:15">
+      <c r="O89" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="122" spans="10:19">
+      <c r="J122" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="10:19">
+      <c r="J123" s="3">
+        <v>1</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="5"/>
+      <c r="S123" s="3"/>
+    </row>
+    <row r="124" spans="10:18">
+      <c r="J124" s="3">
+        <v>2</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3"/>
+    </row>
+    <row r="125" spans="10:18">
+      <c r="J125" s="3">
+        <v>3</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="10:19">
+      <c r="J162" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="163" spans="10:19">
+      <c r="J163" s="3">
+        <v>1</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L163" s="3"/>
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
+      <c r="O163" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="P163" s="5"/>
+      <c r="Q163" s="5"/>
+      <c r="R163" s="5"/>
+      <c r="S163" s="3"/>
+    </row>
+    <row r="164" spans="10:18">
+      <c r="J164" s="3">
+        <v>2</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L164" s="3"/>
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="5"/>
+    </row>
+    <row r="165" spans="10:18">
+      <c r="J165" s="3">
+        <v>3</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="L165" s="3"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="5"/>
+    </row>
+    <row r="166" spans="10:18">
+      <c r="J166" s="3">
+        <v>4</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
+      <c r="R166" s="5"/>
+    </row>
+    <row r="167" spans="10:18">
+      <c r="J167" s="3">
+        <v>5</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L167" s="3"/>
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
+      <c r="O167" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="P167" s="5"/>
+      <c r="Q167" s="5"/>
+      <c r="R167" s="5"/>
+    </row>
+    <row r="168" spans="10:18">
+      <c r="J168" s="3">
+        <v>6</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L168" s="3"/>
+      <c r="M168" s="3"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="5"/>
+      <c r="R168" s="5"/>
+    </row>
+    <row r="169" spans="10:18">
+      <c r="J169" s="3">
+        <v>7</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="L169" s="3"/>
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="P169" s="5"/>
+      <c r="Q169" s="5"/>
+      <c r="R169" s="5"/>
+    </row>
+    <row r="170" spans="10:18">
+      <c r="J170" s="3">
+        <v>8</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L170" s="3"/>
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="P170" s="5"/>
+      <c r="Q170" s="5"/>
+      <c r="R170" s="5"/>
+    </row>
+    <row r="171" spans="10:18">
+      <c r="J171" s="3">
+        <v>9</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="5"/>
+      <c r="P171" s="5"/>
+      <c r="Q171" s="5"/>
+      <c r="R171" s="5"/>
+    </row>
+    <row r="174" spans="10:11">
+      <c r="J174" t="s">
+        <v>220</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="175" spans="11:11">
+      <c r="K175" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="176" spans="11:11">
+      <c r="K176" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="177" spans="11:11">
+      <c r="K177" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="O45:R45"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="O46:R46"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="O84:R84"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="O85:R85"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="O86:R86"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="O87:R87"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="O88:R88"/>
+    <mergeCell ref="L122:N122"/>
+    <mergeCell ref="O122:R122"/>
+    <mergeCell ref="L123:N123"/>
+    <mergeCell ref="O123:R123"/>
+    <mergeCell ref="L124:N124"/>
+    <mergeCell ref="O124:R124"/>
+    <mergeCell ref="L125:N125"/>
+    <mergeCell ref="O125:R125"/>
+    <mergeCell ref="L162:N162"/>
+    <mergeCell ref="O162:R162"/>
+    <mergeCell ref="L163:N163"/>
+    <mergeCell ref="O163:R163"/>
+    <mergeCell ref="L164:N164"/>
+    <mergeCell ref="O164:R164"/>
+    <mergeCell ref="L165:N165"/>
+    <mergeCell ref="O165:R165"/>
+    <mergeCell ref="L166:N166"/>
+    <mergeCell ref="O166:R166"/>
+    <mergeCell ref="L167:N167"/>
+    <mergeCell ref="O167:R167"/>
+    <mergeCell ref="L168:N168"/>
+    <mergeCell ref="O168:R168"/>
+    <mergeCell ref="L169:N169"/>
+    <mergeCell ref="O169:R169"/>
+    <mergeCell ref="L170:N170"/>
+    <mergeCell ref="O170:R170"/>
+    <mergeCell ref="L171:N171"/>
+    <mergeCell ref="O171:R171"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/8月制作内容/系统文档/【叶雯婷】追忆系统策划案.xlsx
+++ b/8月制作内容/系统文档/【叶雯婷】追忆系统策划案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="24315" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="253">
   <si>
     <t>时间</t>
   </si>
@@ -72,6 +72,9 @@
     <t>追忆结果</t>
   </si>
   <si>
+    <t>彩蛋事件</t>
+  </si>
+  <si>
     <t>配置表</t>
   </si>
   <si>
@@ -315,19 +318,76 @@
     <t>若随机到拾光记忆，则再从该地点配置的记忆中随机1个</t>
   </si>
   <si>
-    <t>解锁次数=n</t>
-  </si>
-  <si>
-    <t>解锁概率=5%×n</t>
-  </si>
-  <si>
-    <t>拾光记忆未解锁前，每次遇到都触发概率，判断是否解锁</t>
-  </si>
-  <si>
-    <t>拾光记忆解锁后，将出现在拾光系统里</t>
-  </si>
-  <si>
-    <t>拾光记忆解锁后，则再次遇到时增加该记忆的熟悉感</t>
+    <t>遇到次数：表示第几次遇到</t>
+  </si>
+  <si>
+    <t>获取概率：遇到时有概率获取，初次概率为5%，之后每次增加5%</t>
+  </si>
+  <si>
+    <t>拾光记忆未获取前，每次遇到都触发概率，判断是否获取</t>
+  </si>
+  <si>
+    <t>若概率获取到，则出现在拾光系统里</t>
+  </si>
+  <si>
+    <t>拾光记忆获取后，再次遇到时增加该记忆的熟悉感</t>
+  </si>
+  <si>
+    <t>1.玩家进入追忆动画界面时，有30%概率触发彩蛋</t>
+  </si>
+  <si>
+    <t>2.每日触发彩蛋次数上限为5次</t>
+  </si>
+  <si>
+    <t>3.每次触发从事件表中随机</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>权重</t>
+  </si>
+  <si>
+    <t>铜钱事件</t>
+  </si>
+  <si>
+    <t>铜钱，数量同征收数量</t>
+  </si>
+  <si>
+    <t>声望事件</t>
+  </si>
+  <si>
+    <t>声望，数量同征收数量</t>
+  </si>
+  <si>
+    <t>阅历事件</t>
+  </si>
+  <si>
+    <t>阅历，数量同征收数量</t>
+  </si>
+  <si>
+    <t>成长事件</t>
+  </si>
+  <si>
+    <t>成长点</t>
+  </si>
+  <si>
+    <t>星运事件</t>
+  </si>
+  <si>
+    <t>星尘瓶</t>
+  </si>
+  <si>
+    <t>道具事件1</t>
+  </si>
+  <si>
+    <t>随性玉露×1</t>
+  </si>
+  <si>
+    <t>随性灵泉×1</t>
   </si>
   <si>
     <t>追忆掉落文本表</t>
@@ -712,12 +772,13 @@
     <t>修改备注</t>
   </si>
   <si>
-    <t>单击追忆图标，弹出追忆选择弹窗</t>
-  </si>
-  <si>
-    <t>若在追忆挂机时，则显示追忆动画；
-若追忆结束，奖励未领取，则显示追忆结算；
+    <t>单击追忆图标，弹出追忆选择弹窗
+若在追忆挂机时，则显示追忆动画；
+若追忆结束，奖励未领取，单击后显示追忆结算；
 若当前无可领取奖励，且不在挂机状态，则弹出选择弹窗</t>
+  </si>
+  <si>
+    <t>追忆按钮为普通状态和可领取奖励状态</t>
   </si>
   <si>
     <t>选择方式</t>
@@ -789,6 +850,12 @@
     <t>每次进入动画界面时随机坐标点的人物动画及对话文本</t>
   </si>
   <si>
+    <t>彩蛋位置</t>
+  </si>
+  <si>
+    <t>单击彩蛋，弹出奖励信息</t>
+  </si>
+  <si>
     <t>使用加速道具</t>
   </si>
   <si>
@@ -865,6 +932,24 @@
   </si>
   <si>
     <t>解锁时，固定1个文本</t>
+  </si>
+  <si>
+    <t>事件插图</t>
+  </si>
+  <si>
+    <t>显示事件插图</t>
+  </si>
+  <si>
+    <t>事件信息</t>
+  </si>
+  <si>
+    <t>显示时间信息及奖励</t>
+  </si>
+  <si>
+    <t>任意位置</t>
+  </si>
+  <si>
+    <t>单击任意位置返回追忆界面</t>
   </si>
 </sst>
 </file>
@@ -873,8 +958,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -915,14 +1000,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,6 +1051,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -944,21 +1066,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -966,14 +1074,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,21 +1112,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1010,41 +1120,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,6 +1130,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,139 +1172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,25 +1184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,7 +1202,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,17 +1369,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1329,6 +1420,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1343,38 +1458,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1386,10 +1471,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1398,133 +1483,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1550,6 +1635,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1558,12 +1649,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1645,6 +1730,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="((Z1@6BB_F3YD_~WCZ$HVOX"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="17535525"/>
+          <a:ext cx="9791700" cy="4248150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -1654,7 +1782,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>86360</xdr:rowOff>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1686,13 +1814,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>58420</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1863,7 +1991,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1362075" y="7715250"/>
+          <a:off x="1362075" y="7791450"/>
           <a:ext cx="3433445" cy="6068060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1893,7 +2021,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="942975" y="8580755"/>
+          <a:off x="942975" y="8656955"/>
           <a:ext cx="4429125" cy="897890"/>
           <a:chOff x="4210" y="29683"/>
           <a:chExt cx="6185" cy="1414"/>
@@ -2774,7 +2902,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="14725650"/>
+          <a:off x="1371600" y="14801850"/>
           <a:ext cx="3433445" cy="6086475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2808,7 +2936,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4552950" y="14382750"/>
+          <a:off x="4552950" y="14458950"/>
           <a:ext cx="571500" cy="6484620"/>
           <a:chOff x="9405" y="43815"/>
           <a:chExt cx="900" cy="9350"/>
@@ -3406,7 +3534,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="21837650"/>
+          <a:off x="1371600" y="21913850"/>
           <a:ext cx="3369310" cy="5952490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3436,7 +3564,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3352800" y="23561675"/>
+          <a:off x="3352800" y="23637875"/>
           <a:ext cx="1247775" cy="1191895"/>
           <a:chOff x="7545" y="60795"/>
           <a:chExt cx="1965" cy="1877"/>
@@ -3905,7 +4033,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1390015" y="28705175"/>
+          <a:off x="1390015" y="28781375"/>
           <a:ext cx="3427095" cy="6073775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3935,7 +4063,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="895350" y="29578300"/>
+          <a:off x="895350" y="29654500"/>
           <a:ext cx="4418330" cy="4914900"/>
           <a:chOff x="4177" y="75195"/>
           <a:chExt cx="6157" cy="7741"/>
@@ -5238,6 +5366,362 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33" descr="JK15K6O[SCIT[0UDQDN0GNC"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="35791775"/>
+          <a:ext cx="3524250" cy="6248400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37465</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>424815</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="线形标注 1 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838065" y="38249225"/>
+          <a:ext cx="387350" cy="267335"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 27251"/>
+            <a:gd name="adj4" fmla="val -46666"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>151765</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>539115</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>153035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="线形标注 1 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4952365" y="39630350"/>
+          <a:ext cx="387350" cy="267335"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 27251"/>
+            <a:gd name="adj4" fmla="val -46666"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5504,7 +5988,7 @@
   <dimension ref="B3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B3" sqref="B3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -5546,16 +6030,16 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="3">
         <v>0.2</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5568,10 +6052,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:Q150"/>
+  <dimension ref="B3:Q197"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K107" sqref="K107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H156" sqref="H156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -5663,172 +6147,175 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="1">
+    <row r="16" spans="3:4">
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="1">
         <v>3</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="1">
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
-      <c r="D21" s="1">
+    <row r="22" spans="4:5">
+      <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5">
       <c r="E22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
-      <c r="D24" s="1">
+    <row r="23" spans="5:5">
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="1">
         <v>2</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5">
       <c r="E25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
-      <c r="D28" s="1">
+    <row r="26" spans="5:5">
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" s="1">
         <v>3</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8">
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="9" t="s">
+    </row>
+    <row r="30" spans="5:8">
+      <c r="E30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="5:8">
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="5:8">
+      <c r="E31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="5:8">
-      <c r="E31" s="10" t="s">
+      <c r="F31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="5:8">
+      <c r="E32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="5:8">
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="5:8">
+      <c r="E33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="5:8">
-      <c r="E33" s="10" t="s">
+      <c r="F33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="5:8">
+      <c r="E34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="5:8">
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="5:8">
+      <c r="E35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="5:8">
-      <c r="E35" s="10" t="s">
+      <c r="F35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="E36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="41" spans="3:4">
-      <c r="C41" s="1">
+      <c r="F36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="1">
         <v>2</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="4:5">
-      <c r="D42" s="1">
+    <row r="43" spans="4:5">
+      <c r="D43" s="1">
         <v>1</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:5">
-      <c r="E43" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5">
-      <c r="D45" s="1">
+    <row r="44" spans="5:5">
+      <c r="E44" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" s="1">
         <v>2</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="5:5">
       <c r="E46" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="13:13">
-      <c r="M47" s="7"/>
-    </row>
-    <row r="48" spans="6:7">
-      <c r="F48" s="1">
+    <row r="47" spans="5:5">
+      <c r="E47" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="13:13">
+      <c r="M48" s="9"/>
+    </row>
+    <row r="49" spans="6:7">
+      <c r="F49" s="1">
         <v>1</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="7:7">
       <c r="G49" s="1" t="s">
         <v>43</v>
       </c>
@@ -5838,124 +6325,124 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="7:11">
-      <c r="G51" s="2" t="s">
+    <row r="51" spans="7:7">
+      <c r="G51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="2" t="s">
+    </row>
+    <row r="52" spans="7:11">
+      <c r="G52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="7:11">
-      <c r="G52" s="3" t="s">
+      <c r="J52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H52" s="3">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K52" s="3"/>
+      <c r="K52" s="2"/>
     </row>
     <row r="53" spans="7:11">
       <c r="G53" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H53" s="3">
         <v>8</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K53" s="3"/>
     </row>
     <row r="54" spans="7:11">
       <c r="G54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H54" s="3">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="H54" s="3">
-        <v>6</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="K54" s="3"/>
     </row>
     <row r="55" spans="7:11">
       <c r="G55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="3">
+        <v>6</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="H55" s="3">
-        <v>10</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="K55" s="3"/>
     </row>
     <row r="56" spans="7:11">
       <c r="G56" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H56" s="3">
         <v>10</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K56" s="3"/>
     </row>
     <row r="57" spans="7:11">
       <c r="G57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="3">
+        <v>10</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="7:11">
+      <c r="G58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" s="3">
         <v>14</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="7:8">
-      <c r="G58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="7:8">
+      <c r="G59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H59" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="7:8">
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
     <row r="60" spans="7:8">
-      <c r="G60" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H60" s="3">
-        <f>SUM(H52:H58)/7</f>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="7:8">
+      <c r="G61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" s="3">
+        <f>SUM(H53:H59)/7</f>
         <v>10.8571428571429</v>
       </c>
     </row>
-    <row r="61" spans="7:8">
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="63" spans="6:7">
-      <c r="F63" s="1">
+    <row r="62" spans="7:8">
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="64" spans="6:7">
+      <c r="F64" s="1">
         <v>2</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="7:7">
       <c r="G64" s="1" t="s">
         <v>63</v>
       </c>
@@ -5965,120 +6452,120 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="7:11">
-      <c r="G66" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H66" s="2" t="s">
+    <row r="66" spans="7:7">
+      <c r="G66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="7:11">
+      <c r="G67" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="7:11">
-      <c r="G67" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H67" s="3">
-        <v>6</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K67" s="3"/>
+      <c r="J67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K67" s="2"/>
     </row>
     <row r="68" spans="7:11">
       <c r="G68" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H68" s="3">
         <v>6</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="7:11">
       <c r="G69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" s="3">
+        <v>6</v>
+      </c>
+      <c r="J69" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="H69" s="3">
-        <v>8</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="K69" s="3"/>
     </row>
     <row r="70" spans="7:11">
       <c r="G70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H70" s="3">
+        <v>8</v>
+      </c>
+      <c r="J70" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="H70" s="3">
-        <v>10</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="K70" s="3"/>
     </row>
     <row r="71" spans="7:11">
       <c r="G71" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H71" s="3">
         <v>10</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K71" s="3"/>
     </row>
     <row r="72" spans="7:11">
       <c r="G72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H72" s="3">
+        <v>10</v>
+      </c>
+      <c r="J72" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="7:11">
+      <c r="G73" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" s="3">
         <v>20</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="7:8">
-      <c r="G73" s="3" t="s">
+      <c r="J73" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H73" s="3">
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="7:8">
+      <c r="G74" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="7:8">
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-    </row>
     <row r="75" spans="7:8">
-      <c r="G75" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H75" s="1">
-        <f>SUM(H67:H73)/7</f>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="7:8">
+      <c r="G76" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H76" s="1">
+        <f>SUM(H68:H74)/7</f>
         <v>10.5714285714286</v>
       </c>
     </row>
-    <row r="78" spans="6:7">
-      <c r="F78" s="1">
+    <row r="79" spans="6:7">
+      <c r="F79" s="1">
         <v>3</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="7:7">
       <c r="G79" s="1" t="s">
         <v>79</v>
       </c>
@@ -6088,173 +6575,167 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="7:11">
-      <c r="G81" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H81" s="2" t="s">
+    <row r="81" spans="7:7">
+      <c r="G81" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="7:11">
+      <c r="G82" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="7:11">
-      <c r="G82" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H82" s="3">
-        <v>6</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K82" s="3"/>
+      <c r="J82" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K82" s="2"/>
     </row>
     <row r="83" spans="7:11">
       <c r="G83" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H83" s="3">
         <v>6</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K83" s="3"/>
     </row>
     <row r="84" spans="7:11">
       <c r="G84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H84" s="3">
+        <v>6</v>
+      </c>
+      <c r="J84" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="H84" s="3">
-        <v>8</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="K84" s="3"/>
     </row>
     <row r="85" spans="7:11">
       <c r="G85" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H85" s="3">
+        <v>8</v>
+      </c>
+      <c r="J85" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="H85" s="3">
-        <v>10</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="K85" s="3"/>
     </row>
     <row r="86" spans="7:11">
       <c r="G86" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H86" s="3">
+        <v>10</v>
+      </c>
+      <c r="J86" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="H86" s="3">
-        <v>14</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="K86" s="3"/>
     </row>
     <row r="87" spans="7:11">
       <c r="G87" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H87" s="3">
+        <v>14</v>
+      </c>
+      <c r="J87" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H87" s="3">
+      <c r="K87" s="3"/>
+    </row>
+    <row r="88" spans="7:11">
+      <c r="G88" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H88" s="3">
         <v>20</v>
       </c>
-      <c r="J87" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="89" spans="7:8">
-      <c r="G89" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H89" s="1">
-        <f>SUM(H82:H87)/6</f>
+      <c r="J88" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K88" s="3"/>
+    </row>
+    <row r="90" spans="7:8">
+      <c r="G90" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H90" s="1">
+        <f>SUM(H83:H88)/6</f>
         <v>10.6666666666667</v>
       </c>
     </row>
-    <row r="97" spans="3:4">
-      <c r="C97" s="1">
+    <row r="98" spans="3:4">
+      <c r="C98" s="1">
         <v>3</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="4:5">
-      <c r="D98" s="1">
+    <row r="99" spans="4:5">
+      <c r="D99" s="1">
         <v>1</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="100" spans="4:5">
-      <c r="D100" s="1">
+      <c r="E99" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5">
+      <c r="D101" s="1">
         <v>2</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="102" spans="4:5">
-      <c r="D102" s="1">
+      <c r="E101" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5">
+      <c r="D103" s="1">
         <v>3</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="103" spans="5:11">
-      <c r="E103" s="1">
-        <v>1</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="104" spans="5:11">
       <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="5:11">
+      <c r="E105" s="1">
         <v>2</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G104" s="1" t="s">
+      <c r="F105" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K105" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K104" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="107" spans="4:5">
-      <c r="D107" s="1">
-        <v>4</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="108" spans="5:6">
-      <c r="E108" s="1">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="108" spans="6:6">
       <c r="F108" s="1" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="6:6">
@@ -6262,654 +6743,768 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="5:6">
-      <c r="E111" s="1">
-        <v>2</v>
-      </c>
+    <row r="110" spans="6:6">
+      <c r="F110" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6">
       <c r="F111" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="6:6">
       <c r="F112" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="6:6">
       <c r="F113" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3">
-      <c r="B118" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4">
+      <c r="C149" s="1">
         <v>4</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="4:5">
-      <c r="D119" s="1">
+    <row r="150" spans="5:5">
+      <c r="E150" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5">
+      <c r="E151" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5">
+      <c r="E152" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="154" spans="5:7">
+      <c r="E154" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="155" spans="5:7">
+      <c r="E155" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G155" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="5:7">
+      <c r="E156" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G156" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="5:7">
+      <c r="E157" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G157" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="5:7">
+      <c r="E158" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G158" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="5:7">
+      <c r="E159" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G159" s="8">
         <v>1</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="120" spans="5:17">
-      <c r="E120" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F120" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G120" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H120" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-      <c r="P120" s="2"/>
-      <c r="Q120" s="2"/>
-    </row>
-    <row r="121" spans="5:17">
-      <c r="E121" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
-      <c r="L121" s="3"/>
-      <c r="M121" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
-      <c r="P121" s="5"/>
-      <c r="Q121" s="5"/>
-    </row>
-    <row r="122" spans="5:17">
-      <c r="E122" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
-      <c r="L122" s="3"/>
-      <c r="M122" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="N122" s="5"/>
-      <c r="O122" s="5"/>
-      <c r="P122" s="5"/>
-      <c r="Q122" s="5"/>
-    </row>
-    <row r="123" spans="5:17">
-      <c r="E123" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
-      <c r="L123" s="3"/>
-      <c r="M123" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="N123" s="5"/>
-      <c r="O123" s="5"/>
-      <c r="P123" s="5"/>
-      <c r="Q123" s="5"/>
-    </row>
-    <row r="124" spans="5:17">
-      <c r="E124" s="3" t="s">
+    </row>
+    <row r="160" spans="5:7">
+      <c r="E160" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="F160" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I124" s="3" t="s">
+      <c r="G160" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="5:7">
+      <c r="E161" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
-      <c r="M124" s="5" t="s">
+      <c r="G161" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="1">
+        <v>5</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5">
+      <c r="D166" s="1">
+        <v>1</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N124" s="5"/>
-      <c r="O124" s="5"/>
-      <c r="P124" s="5"/>
-      <c r="Q124" s="5"/>
-    </row>
-    <row r="125" spans="5:17">
-      <c r="E125" s="3" t="s">
+    </row>
+    <row r="167" spans="5:17">
+      <c r="E167" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="F167" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="I125" s="3" t="s">
+      <c r="G167" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
-      <c r="M125" s="5" t="s">
+      <c r="H167" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="N125" s="5"/>
-      <c r="O125" s="5"/>
-      <c r="P125" s="5"/>
-      <c r="Q125" s="5"/>
-    </row>
-    <row r="126" spans="5:17">
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
-      <c r="O126" s="5"/>
-      <c r="P126" s="5"/>
-      <c r="Q126" s="5"/>
-    </row>
-    <row r="127" spans="9:17">
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
-      <c r="M127" s="5"/>
-      <c r="N127" s="5"/>
-      <c r="O127" s="5"/>
-      <c r="P127" s="5"/>
-      <c r="Q127" s="5"/>
-    </row>
-    <row r="128" spans="9:17">
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
-      <c r="L128" s="3"/>
-      <c r="M128" s="3"/>
-      <c r="N128" s="3"/>
-      <c r="O128" s="3"/>
-      <c r="P128" s="3"/>
-      <c r="Q128" s="3"/>
-    </row>
-    <row r="129" spans="4:17">
-      <c r="D129" s="1">
+      <c r="I167" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+    </row>
+    <row r="168" spans="5:17">
+      <c r="E168" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
+      <c r="M168" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N168" s="5"/>
+      <c r="O168" s="5"/>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="5"/>
+    </row>
+    <row r="169" spans="5:17">
+      <c r="E169" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
+      <c r="M169" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N169" s="5"/>
+      <c r="O169" s="5"/>
+      <c r="P169" s="5"/>
+      <c r="Q169" s="5"/>
+    </row>
+    <row r="170" spans="5:17">
+      <c r="E170" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N170" s="5"/>
+      <c r="O170" s="5"/>
+      <c r="P170" s="5"/>
+      <c r="Q170" s="5"/>
+    </row>
+    <row r="171" spans="5:17">
+      <c r="E171" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
+      <c r="M171" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="N171" s="5"/>
+      <c r="O171" s="5"/>
+      <c r="P171" s="5"/>
+      <c r="Q171" s="5"/>
+    </row>
+    <row r="172" spans="5:17">
+      <c r="E172" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
+      <c r="L172" s="3"/>
+      <c r="M172" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N172" s="5"/>
+      <c r="O172" s="5"/>
+      <c r="P172" s="5"/>
+      <c r="Q172" s="5"/>
+    </row>
+    <row r="173" spans="5:17">
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
+      <c r="L173" s="3"/>
+      <c r="M173" s="5"/>
+      <c r="N173" s="5"/>
+      <c r="O173" s="5"/>
+      <c r="P173" s="5"/>
+      <c r="Q173" s="5"/>
+    </row>
+    <row r="174" spans="9:17">
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
+      <c r="M174" s="5"/>
+      <c r="N174" s="5"/>
+      <c r="O174" s="5"/>
+      <c r="P174" s="5"/>
+      <c r="Q174" s="5"/>
+    </row>
+    <row r="175" spans="9:17">
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+      <c r="L175" s="3"/>
+      <c r="M175" s="3"/>
+      <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
+      <c r="P175" s="3"/>
+      <c r="Q175" s="3"/>
+    </row>
+    <row r="176" spans="4:17">
+      <c r="D176" s="1">
         <v>2</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E176" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
+      <c r="L176" s="3"/>
+      <c r="M176" s="3"/>
+      <c r="N176" s="3"/>
+      <c r="O176" s="3"/>
+      <c r="P176" s="3"/>
+      <c r="Q176" s="3"/>
+    </row>
+    <row r="177" spans="5:17">
+      <c r="E177" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G177" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H177" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I177" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-      <c r="L129" s="3"/>
-      <c r="M129" s="3"/>
-      <c r="N129" s="3"/>
-      <c r="O129" s="3"/>
-      <c r="P129" s="3"/>
-      <c r="Q129" s="3"/>
-    </row>
-    <row r="130" spans="5:17">
-      <c r="E130" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F130" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G130" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H130" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" s="2"/>
-      <c r="Q130" s="2"/>
-    </row>
-    <row r="131" s="8" customFormat="1" spans="5:17">
-      <c r="E131" s="3" t="s">
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+      <c r="M177" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F131" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="J131" s="14"/>
-      <c r="K131" s="14"/>
-      <c r="L131" s="14"/>
-      <c r="M131" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="N131" s="16"/>
-      <c r="O131" s="16"/>
-      <c r="P131" s="16"/>
-      <c r="Q131" s="16"/>
-    </row>
-    <row r="132" spans="5:17">
-      <c r="E132" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
-      <c r="M132" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="N132" s="5"/>
-      <c r="O132" s="5"/>
-      <c r="P132" s="5"/>
-      <c r="Q132" s="5"/>
-    </row>
-    <row r="133" spans="5:17">
-      <c r="E133" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
-      <c r="L133" s="3"/>
-      <c r="M133" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N133" s="5"/>
-      <c r="O133" s="5"/>
-      <c r="P133" s="5"/>
-      <c r="Q133" s="5"/>
-    </row>
-    <row r="134" ht="26" customHeight="1" spans="5:17">
-      <c r="E134" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I134" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
-      <c r="L134" s="3"/>
-      <c r="M134" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="N134" s="5"/>
-      <c r="O134" s="5"/>
-      <c r="P134" s="5"/>
-      <c r="Q134" s="5"/>
-    </row>
-    <row r="135" spans="5:17">
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
-      <c r="L135" s="3"/>
-      <c r="M135" s="5"/>
-      <c r="N135" s="5"/>
-      <c r="O135" s="5"/>
-      <c r="P135" s="5"/>
-      <c r="Q135" s="5"/>
-    </row>
-    <row r="138" spans="4:5">
-      <c r="D138" s="1">
+      <c r="N177" s="2"/>
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
+      <c r="Q177" s="2"/>
+    </row>
+    <row r="178" s="10" customFormat="1" spans="5:17">
+      <c r="E178" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G178" s="13"/>
+      <c r="H178" s="13"/>
+      <c r="I178" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J178" s="14"/>
+      <c r="K178" s="14"/>
+      <c r="L178" s="14"/>
+      <c r="M178" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="N178" s="16"/>
+      <c r="O178" s="16"/>
+      <c r="P178" s="16"/>
+      <c r="Q178" s="16"/>
+    </row>
+    <row r="179" spans="5:17">
+      <c r="E179" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J179" s="3"/>
+      <c r="K179" s="3"/>
+      <c r="L179" s="3"/>
+      <c r="M179" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="N179" s="5"/>
+      <c r="O179" s="5"/>
+      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
+    </row>
+    <row r="180" spans="5:17">
+      <c r="E180" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+      <c r="L180" s="3"/>
+      <c r="M180" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="N180" s="5"/>
+      <c r="O180" s="5"/>
+      <c r="P180" s="5"/>
+      <c r="Q180" s="5"/>
+    </row>
+    <row r="181" ht="26" customHeight="1" spans="5:17">
+      <c r="E181" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
+      <c r="M181" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="N181" s="5"/>
+      <c r="O181" s="5"/>
+      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
+    </row>
+    <row r="182" spans="5:17">
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+      <c r="L182" s="3"/>
+      <c r="M182" s="5"/>
+      <c r="N182" s="5"/>
+      <c r="O182" s="5"/>
+      <c r="P182" s="5"/>
+      <c r="Q182" s="5"/>
+    </row>
+    <row r="185" spans="4:5">
+      <c r="D185" s="1">
         <v>3</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="139" spans="5:17">
-      <c r="E139" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F139" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G139" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H139" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
-    </row>
-    <row r="140" spans="5:17">
-      <c r="E140" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I140" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J140" s="3"/>
-      <c r="K140" s="3"/>
-      <c r="L140" s="3"/>
-      <c r="M140" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="N140" s="5"/>
-      <c r="O140" s="5"/>
-      <c r="P140" s="5"/>
-      <c r="Q140" s="5"/>
-    </row>
-    <row r="141" spans="5:17">
-      <c r="E141" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J141" s="3"/>
-      <c r="K141" s="3"/>
-      <c r="L141" s="3"/>
-      <c r="M141" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="N141" s="5"/>
-      <c r="O141" s="5"/>
-      <c r="P141" s="5"/>
-      <c r="Q141" s="5"/>
-    </row>
-    <row r="142" ht="31" customHeight="1" spans="5:17">
-      <c r="E142" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I142" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3"/>
-      <c r="L142" s="3"/>
-      <c r="M142" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-    </row>
-    <row r="143" spans="5:17">
-      <c r="E143" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3"/>
-      <c r="L143" s="3"/>
-      <c r="M143" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="N143" s="5"/>
-      <c r="O143" s="5"/>
-      <c r="P143" s="5"/>
-      <c r="Q143" s="5"/>
-    </row>
-    <row r="146" spans="4:5">
-      <c r="D146" s="1">
+      <c r="E185" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="186" spans="5:17">
+      <c r="E186" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G186" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H186" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
+      <c r="M186" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N186" s="2"/>
+      <c r="O186" s="2"/>
+      <c r="P186" s="2"/>
+      <c r="Q186" s="2"/>
+    </row>
+    <row r="187" spans="5:17">
+      <c r="E187" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I187" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J187" s="3"/>
+      <c r="K187" s="3"/>
+      <c r="L187" s="3"/>
+      <c r="M187" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N187" s="5"/>
+      <c r="O187" s="5"/>
+      <c r="P187" s="5"/>
+      <c r="Q187" s="5"/>
+    </row>
+    <row r="188" spans="5:17">
+      <c r="E188" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+      <c r="L188" s="3"/>
+      <c r="M188" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N188" s="5"/>
+      <c r="O188" s="5"/>
+      <c r="P188" s="5"/>
+      <c r="Q188" s="5"/>
+    </row>
+    <row r="189" ht="31" customHeight="1" spans="5:17">
+      <c r="E189" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+      <c r="L189" s="3"/>
+      <c r="M189" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N189" s="5"/>
+      <c r="O189" s="5"/>
+      <c r="P189" s="5"/>
+      <c r="Q189" s="5"/>
+    </row>
+    <row r="190" spans="5:17">
+      <c r="E190" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+      <c r="L190" s="3"/>
+      <c r="M190" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N190" s="5"/>
+      <c r="O190" s="5"/>
+      <c r="P190" s="5"/>
+      <c r="Q190" s="5"/>
+    </row>
+    <row r="193" spans="4:5">
+      <c r="D193" s="1">
         <v>4</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="147" spans="5:17">
-      <c r="E147" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G147" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H147" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
-      <c r="Q147" s="2"/>
-    </row>
-    <row r="148" ht="34" customHeight="1" spans="5:17">
-      <c r="E148" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I148" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
-      <c r="L148" s="3"/>
-      <c r="M148" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N148" s="3"/>
-      <c r="O148" s="3"/>
-      <c r="P148" s="3"/>
-      <c r="Q148" s="3"/>
-    </row>
-    <row r="149" spans="5:17">
-      <c r="E149" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
-      <c r="L149" s="3"/>
-      <c r="M149" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N149" s="3"/>
-      <c r="O149" s="3"/>
-      <c r="P149" s="3"/>
-      <c r="Q149" s="3"/>
-    </row>
-    <row r="150" spans="5:17">
-      <c r="E150" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
-      <c r="L150" s="3"/>
-      <c r="M150" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="N150" s="3"/>
-      <c r="O150" s="3"/>
-      <c r="P150" s="3"/>
-      <c r="Q150" s="3"/>
+      <c r="E193" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="194" spans="5:17">
+      <c r="E194" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F194" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G194" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H194" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2"/>
+    </row>
+    <row r="195" ht="34" customHeight="1" spans="5:17">
+      <c r="E195" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J195" s="3"/>
+      <c r="K195" s="3"/>
+      <c r="L195" s="3"/>
+      <c r="M195" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N195" s="3"/>
+      <c r="O195" s="3"/>
+      <c r="P195" s="3"/>
+      <c r="Q195" s="3"/>
+    </row>
+    <row r="196" spans="5:17">
+      <c r="E196" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3"/>
+      <c r="L196" s="3"/>
+      <c r="M196" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
+      <c r="P196" s="3"/>
+      <c r="Q196" s="3"/>
+    </row>
+    <row r="197" spans="5:17">
+      <c r="E197" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
+      <c r="L197" s="3"/>
+      <c r="M197" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
+      <c r="P197" s="3"/>
+      <c r="Q197" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="F29:H29"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="F34:H34"/>
     <mergeCell ref="F35:H35"/>
-    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="F36:H36"/>
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="J54:K54"/>
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J58:K58"/>
     <mergeCell ref="J67:K67"/>
     <mergeCell ref="J68:K68"/>
     <mergeCell ref="J69:K69"/>
     <mergeCell ref="J70:K70"/>
     <mergeCell ref="J71:K71"/>
     <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J73:K73"/>
     <mergeCell ref="J82:K82"/>
     <mergeCell ref="J83:K83"/>
     <mergeCell ref="J84:K84"/>
     <mergeCell ref="J85:K85"/>
     <mergeCell ref="J86:K86"/>
     <mergeCell ref="J87:K87"/>
-    <mergeCell ref="I120:L120"/>
-    <mergeCell ref="M120:Q120"/>
-    <mergeCell ref="I121:L121"/>
-    <mergeCell ref="M121:Q121"/>
-    <mergeCell ref="I122:L122"/>
-    <mergeCell ref="M122:Q122"/>
-    <mergeCell ref="I123:L123"/>
-    <mergeCell ref="M123:Q123"/>
-    <mergeCell ref="I124:L124"/>
-    <mergeCell ref="M124:Q124"/>
-    <mergeCell ref="I125:L125"/>
-    <mergeCell ref="M125:Q125"/>
-    <mergeCell ref="I127:L127"/>
-    <mergeCell ref="M127:Q127"/>
-    <mergeCell ref="I128:L128"/>
-    <mergeCell ref="M128:Q128"/>
-    <mergeCell ref="I129:L129"/>
-    <mergeCell ref="M129:Q129"/>
-    <mergeCell ref="I130:L130"/>
-    <mergeCell ref="M130:Q130"/>
-    <mergeCell ref="I131:L131"/>
-    <mergeCell ref="M131:Q131"/>
-    <mergeCell ref="I132:L132"/>
-    <mergeCell ref="M132:Q132"/>
-    <mergeCell ref="I133:L133"/>
-    <mergeCell ref="M133:Q133"/>
-    <mergeCell ref="I134:L134"/>
-    <mergeCell ref="M134:Q134"/>
-    <mergeCell ref="I135:L135"/>
-    <mergeCell ref="M135:Q135"/>
-    <mergeCell ref="I139:L139"/>
-    <mergeCell ref="M139:Q139"/>
-    <mergeCell ref="I140:L140"/>
-    <mergeCell ref="M140:Q140"/>
-    <mergeCell ref="I141:L141"/>
-    <mergeCell ref="M141:Q141"/>
-    <mergeCell ref="I142:L142"/>
-    <mergeCell ref="M142:Q142"/>
-    <mergeCell ref="I143:L143"/>
-    <mergeCell ref="M143:Q143"/>
-    <mergeCell ref="I147:L147"/>
-    <mergeCell ref="M147:Q147"/>
-    <mergeCell ref="I148:L148"/>
-    <mergeCell ref="M148:Q148"/>
-    <mergeCell ref="I149:L149"/>
-    <mergeCell ref="M149:Q149"/>
-    <mergeCell ref="I150:L150"/>
-    <mergeCell ref="M150:Q150"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="I167:L167"/>
+    <mergeCell ref="M167:Q167"/>
+    <mergeCell ref="I168:L168"/>
+    <mergeCell ref="M168:Q168"/>
+    <mergeCell ref="I169:L169"/>
+    <mergeCell ref="M169:Q169"/>
+    <mergeCell ref="I170:L170"/>
+    <mergeCell ref="M170:Q170"/>
+    <mergeCell ref="I171:L171"/>
+    <mergeCell ref="M171:Q171"/>
+    <mergeCell ref="I172:L172"/>
+    <mergeCell ref="M172:Q172"/>
+    <mergeCell ref="I174:L174"/>
+    <mergeCell ref="M174:Q174"/>
+    <mergeCell ref="I175:L175"/>
+    <mergeCell ref="M175:Q175"/>
+    <mergeCell ref="I176:L176"/>
+    <mergeCell ref="M176:Q176"/>
+    <mergeCell ref="I177:L177"/>
+    <mergeCell ref="M177:Q177"/>
+    <mergeCell ref="I178:L178"/>
+    <mergeCell ref="M178:Q178"/>
+    <mergeCell ref="I179:L179"/>
+    <mergeCell ref="M179:Q179"/>
+    <mergeCell ref="I180:L180"/>
+    <mergeCell ref="M180:Q180"/>
+    <mergeCell ref="I181:L181"/>
+    <mergeCell ref="M181:Q181"/>
+    <mergeCell ref="I182:L182"/>
+    <mergeCell ref="M182:Q182"/>
+    <mergeCell ref="I186:L186"/>
+    <mergeCell ref="M186:Q186"/>
+    <mergeCell ref="I187:L187"/>
+    <mergeCell ref="M187:Q187"/>
+    <mergeCell ref="I188:L188"/>
+    <mergeCell ref="M188:Q188"/>
+    <mergeCell ref="I189:L189"/>
+    <mergeCell ref="M189:Q189"/>
+    <mergeCell ref="I190:L190"/>
+    <mergeCell ref="M190:Q190"/>
+    <mergeCell ref="I194:L194"/>
+    <mergeCell ref="M194:Q194"/>
+    <mergeCell ref="I195:L195"/>
+    <mergeCell ref="M195:Q195"/>
+    <mergeCell ref="I196:L196"/>
+    <mergeCell ref="M196:Q196"/>
+    <mergeCell ref="I197:L197"/>
+    <mergeCell ref="M197:Q197"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:S177"/>
+  <dimension ref="B2:S206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N179" sqref="N179"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6917,7 +7512,7 @@
     <col min="11" max="11" width="19.125" customWidth="1"/>
     <col min="12" max="12" width="11.75" customWidth="1"/>
     <col min="13" max="13" width="11.25" customWidth="1"/>
-    <col min="14" max="14" width="11.125" customWidth="1"/>
+    <col min="14" max="14" width="26.375" customWidth="1"/>
     <col min="16" max="18" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6926,7 +7521,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="3:19">
@@ -6938,27 +7533,27 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="2" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" ht="54" customHeight="1" spans="3:18">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1" spans="3:18">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -6970,15 +7565,15 @@
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>175</v>
+        <v>190</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="4" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -7359,7 +7954,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -7378,24 +7973,24 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="2" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="10:19">
@@ -7403,13 +7998,13 @@
         <v>1</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="5" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
@@ -7427,7 +8022,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="5" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
@@ -7438,10 +8033,10 @@
         <v>3</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -7455,13 +8050,13 @@
         <v>4</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="5" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
@@ -7472,13 +8067,13 @@
         <v>5</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="5" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
@@ -7489,10 +8084,10 @@
         <v>6</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -7516,29 +8111,29 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="10:19">
       <c r="J84" s="2" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
       <c r="S84" s="2" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="10:19">
@@ -7546,10 +8141,10 @@
         <v>1</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
@@ -7564,13 +8159,13 @@
         <v>2</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="5" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
@@ -7582,15 +8177,15 @@
         <v>3</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
@@ -7602,52 +8197,65 @@
         <v>4</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="6" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
-      <c r="S88" s="7"/>
+      <c r="S88" s="9"/>
     </row>
     <row r="89" spans="15:15">
       <c r="O89" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="10:14">
+      <c r="J90" s="7">
+        <v>5</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
     </row>
     <row r="121" spans="2:3">
       <c r="B121">
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="10:19">
       <c r="J122" s="2" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
       <c r="S122" s="2" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="123" spans="10:19">
@@ -7655,10 +8263,10 @@
         <v>1</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
@@ -7673,13 +8281,13 @@
         <v>2</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
@@ -7690,10 +8298,10 @@
         <v>3</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
@@ -7712,24 +8320,24 @@
     </row>
     <row r="162" spans="10:19">
       <c r="J162" s="2" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
       <c r="O162" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" s="2"/>
       <c r="R162" s="2"/>
       <c r="S162" s="2" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="163" spans="10:19">
@@ -7737,13 +8345,13 @@
         <v>1</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="L163" s="3"/>
       <c r="M163" s="3"/>
       <c r="N163" s="3"/>
       <c r="O163" s="5" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="P163" s="5"/>
       <c r="Q163" s="5"/>
@@ -7755,13 +8363,13 @@
         <v>2</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
       <c r="N164" s="3"/>
       <c r="O164" s="5" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="P164" s="5"/>
       <c r="Q164" s="5"/>
@@ -7772,13 +8380,13 @@
         <v>3</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
       <c r="N165" s="3"/>
       <c r="O165" s="5" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="P165" s="5"/>
       <c r="Q165" s="5"/>
@@ -7789,13 +8397,13 @@
         <v>4</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
       <c r="N166" s="3"/>
       <c r="O166" s="5" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="P166" s="5"/>
       <c r="Q166" s="5"/>
@@ -7806,13 +8414,13 @@
         <v>5</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
       <c r="O167" s="5" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="P167" s="5"/>
       <c r="Q167" s="5"/>
@@ -7823,13 +8431,13 @@
         <v>6</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
       <c r="N168" s="3"/>
       <c r="O168" s="5" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="P168" s="5"/>
       <c r="Q168" s="5"/>
@@ -7840,13 +8448,13 @@
         <v>7</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
       <c r="N169" s="3"/>
       <c r="O169" s="5" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="P169" s="5"/>
       <c r="Q169" s="5"/>
@@ -7857,13 +8465,13 @@
         <v>8</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
       <c r="N170" s="3"/>
       <c r="O170" s="5" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="P170" s="5"/>
       <c r="Q170" s="5"/>
@@ -7874,10 +8482,10 @@
         <v>9</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M171" s="3"/>
       <c r="N171" s="3"/>
@@ -7888,29 +8496,99 @@
     </row>
     <row r="174" spans="10:11">
       <c r="J174" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
     </row>
     <row r="175" spans="11:11">
       <c r="K175" s="1" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="176" spans="11:11">
       <c r="K176" s="1" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
     </row>
     <row r="177" spans="11:11">
       <c r="K177" s="1" t="s">
-        <v>224</v>
-      </c>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="203" spans="10:19">
+      <c r="J203" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L203" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="2"/>
+      <c r="R203" s="2"/>
+      <c r="S203" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="204" spans="10:19">
+      <c r="J204" s="3">
+        <v>1</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L204" s="3"/>
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
+      <c r="O204" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="P204" s="5"/>
+      <c r="Q204" s="5"/>
+      <c r="R204" s="5"/>
+      <c r="S204" s="3"/>
+    </row>
+    <row r="205" spans="10:18">
+      <c r="J205" s="3">
+        <v>2</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L205" s="3"/>
+      <c r="M205" s="3"/>
+      <c r="N205" s="3"/>
+      <c r="O205" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="P205" s="5"/>
+      <c r="Q205" s="5"/>
+      <c r="R205" s="5"/>
+    </row>
+    <row r="206" spans="10:14">
+      <c r="J206" s="7">
+        <v>3</v>
+      </c>
+      <c r="K206" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="L206" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M206" s="7"/>
+      <c r="N206" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="64">
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="L4:N4"/>
@@ -7939,6 +8617,7 @@
     <mergeCell ref="O87:R87"/>
     <mergeCell ref="L88:N88"/>
     <mergeCell ref="O88:R88"/>
+    <mergeCell ref="L90:N90"/>
     <mergeCell ref="L122:N122"/>
     <mergeCell ref="O122:R122"/>
     <mergeCell ref="L123:N123"/>
@@ -7967,6 +8646,13 @@
     <mergeCell ref="O170:R170"/>
     <mergeCell ref="L171:N171"/>
     <mergeCell ref="O171:R171"/>
+    <mergeCell ref="L203:N203"/>
+    <mergeCell ref="O203:R203"/>
+    <mergeCell ref="L204:N204"/>
+    <mergeCell ref="O204:R204"/>
+    <mergeCell ref="L205:N205"/>
+    <mergeCell ref="O205:R205"/>
+    <mergeCell ref="L206:N206"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/8月制作内容/系统文档/【叶雯婷】追忆系统策划案.xlsx
+++ b/8月制作内容/系统文档/【叶雯婷】追忆系统策划案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24315" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="254">
   <si>
     <t>时间</t>
   </si>
@@ -51,7 +51,7 @@
     <t>设计目的</t>
   </si>
   <si>
-    <t>玩家追寻卡牌的记忆，获取时光里的记忆</t>
+    <t>玩家追寻卡牌的物件，获取时光里的物件</t>
   </si>
   <si>
     <t>获得送给知交的礼物</t>
@@ -84,13 +84,13 @@
     <t>系统解锁条件</t>
   </si>
   <si>
-    <t>解锁第一张卡牌后，引导追寻记忆</t>
+    <t>解锁第一张卡牌后，引导追寻物件</t>
   </si>
   <si>
     <t>追忆系统说明</t>
   </si>
   <si>
-    <t>挂机8小时追寻记忆后，可能获得知交礼物道具或拾光记忆、或是记忆的熟悉度</t>
+    <t>挂机4小时追寻物件后，可能获得知交礼物道具或拾光物件、或是物件的熟悉度</t>
   </si>
   <si>
     <t>定义说明</t>
@@ -108,16 +108,19 @@
     <t>知交好感道具，增加知交好感度</t>
   </si>
   <si>
-    <t>拾光记忆</t>
-  </si>
-  <si>
-    <t>从卡牌中产生的记忆，通过追忆找寻</t>
+    <t>拾光物件</t>
+  </si>
+  <si>
+    <t>从卡牌中产生的物件，通过追忆找寻</t>
+  </si>
+  <si>
+    <t>属性</t>
   </si>
   <si>
     <t>熟悉感</t>
   </si>
   <si>
-    <t>拾光记忆上的属性之一，能够提升记忆完整度并解锁记忆加成</t>
+    <t>拾光物件上的属性之一，能够提升物件完整度并解锁物件加成</t>
   </si>
   <si>
     <t>沙漏</t>
@@ -138,13 +141,13 @@
     <t>表示在追忆结束时获得的奖励</t>
   </si>
   <si>
-    <t>每次追忆持续8小时，可使用道具沙漏加速完成</t>
+    <t>每次追忆持续4小时，可使用道具沙漏加速完成</t>
   </si>
   <si>
     <t>地点</t>
   </si>
   <si>
-    <t>（不同地点配置不同场景动画、不同地点可能获得的礼物和拾光记忆不同）</t>
+    <t>（不同地点配置不同场景动画、不同地点可能获得的礼物和拾光物件不同）</t>
   </si>
   <si>
     <t>城内</t>
@@ -162,43 +165,43 @@
     <t>普通好感度</t>
   </si>
   <si>
-    <t>可能解锁拾光记忆</t>
+    <t>可能解锁拾光物件</t>
   </si>
   <si>
     <t>仕女图</t>
   </si>
   <si>
-    <t>记忆ID1</t>
+    <t>物件ID1</t>
   </si>
   <si>
     <t>落花簪</t>
   </si>
   <si>
-    <t>记忆ID2</t>
+    <t>物件ID2</t>
   </si>
   <si>
     <t>青铜镜</t>
   </si>
   <si>
-    <t>记忆ID3</t>
+    <t>物件ID3</t>
   </si>
   <si>
     <t>凤凰镜</t>
   </si>
   <si>
-    <t>记忆ID4</t>
+    <t>物件ID4</t>
   </si>
   <si>
     <t>张旭的字帖</t>
   </si>
   <si>
-    <t>记忆ID5</t>
+    <t>物件ID5</t>
   </si>
   <si>
     <t>吴道子的画</t>
   </si>
   <si>
-    <t>记忆ID6</t>
+    <t>物件ID6</t>
   </si>
   <si>
     <t>唐花纹香盒</t>
@@ -219,37 +222,37 @@
     <t>桃子</t>
   </si>
   <si>
-    <t>记忆ID7</t>
+    <t>物件ID7</t>
   </si>
   <si>
     <t>荔枝</t>
   </si>
   <si>
-    <t>记忆ID8</t>
+    <t>物件ID8</t>
   </si>
   <si>
     <t>泣血刃</t>
   </si>
   <si>
-    <t>记忆ID9</t>
+    <t>物件ID9</t>
   </si>
   <si>
     <t>三彩骏马</t>
   </si>
   <si>
-    <t>记忆ID10</t>
+    <t>物件ID10</t>
   </si>
   <si>
     <t>鎏金青铜马</t>
   </si>
   <si>
-    <t>记忆ID11</t>
+    <t>物件ID11</t>
   </si>
   <si>
     <t>三彩南瓜罐</t>
   </si>
   <si>
-    <t>记忆ID12</t>
+    <t>物件ID12</t>
   </si>
   <si>
     <t>秘色瓷手镯</t>
@@ -267,40 +270,40 @@
     <t>古琴</t>
   </si>
   <si>
-    <t>记忆ID13</t>
+    <t>物件ID13</t>
   </si>
   <si>
     <t>九眼天珠</t>
   </si>
   <si>
-    <t>记忆ID14</t>
+    <t>物件ID14</t>
   </si>
   <si>
     <t>凤首箜篌</t>
   </si>
   <si>
-    <t>记忆ID15</t>
+    <t>物件ID15</t>
   </si>
   <si>
     <t>白玉棋盘</t>
   </si>
   <si>
-    <t>记忆ID16</t>
+    <t>物件ID16</t>
   </si>
   <si>
     <t>鎏金铜佛像</t>
   </si>
   <si>
-    <t>记忆ID17</t>
+    <t>物件ID17</t>
   </si>
   <si>
     <t>玛瑙天珠手串</t>
   </si>
   <si>
-    <t>记忆ID18</t>
-  </si>
-  <si>
-    <t>追忆后有概率获得礼物道具及拾光记忆</t>
+    <t>物件ID18</t>
+  </si>
+  <si>
+    <t>追忆后有概率获得礼物道具及拾光物件</t>
   </si>
   <si>
     <t>获取数量：8</t>
@@ -315,7 +318,7 @@
     <t>（查看奖励组权重）</t>
   </si>
   <si>
-    <t>若随机到拾光记忆，则再从该地点配置的记忆中随机1个</t>
+    <t>若随机到拾光物件，则再从该地点配置的物件中随机1个</t>
   </si>
   <si>
     <t>遇到次数：表示第几次遇到</t>
@@ -324,19 +327,19 @@
     <t>获取概率：遇到时有概率获取，初次概率为5%，之后每次增加5%</t>
   </si>
   <si>
-    <t>拾光记忆未获取前，每次遇到都触发概率，判断是否获取</t>
+    <t>拾光物件未获取前，每次遇到都触发概率，判断是否获取</t>
   </si>
   <si>
     <t>若概率获取到，则出现在拾光系统里</t>
   </si>
   <si>
-    <t>拾光记忆获取后，再次遇到时增加该记忆的熟悉感</t>
-  </si>
-  <si>
-    <t>1.玩家进入追忆动画界面时，有30%概率触发彩蛋</t>
-  </si>
-  <si>
-    <t>2.每日触发彩蛋次数上限为5次</t>
+    <t>拾光物件获取后，再次遇到时增加该物件的熟悉感</t>
+  </si>
+  <si>
+    <t>1.不同时段将触发不同点位的彩蛋</t>
+  </si>
+  <si>
+    <t>2.领取彩蛋后该时间段不再触发</t>
   </si>
   <si>
     <t>3.每次触发从事件表中随机</t>
@@ -426,7 +429,7 @@
     <t>TextGroupID</t>
   </si>
   <si>
-    <t>好感道具=1，记忆=2</t>
+    <t>好感道具=1，物件=2</t>
   </si>
   <si>
     <t>表示文本组的ID</t>
@@ -447,10 +450,10 @@
     <t>DropID</t>
   </si>
   <si>
-    <t>填写掉落的知交好感道具ID或记忆ID</t>
-  </si>
-  <si>
-    <t>表示追忆掉落的知交好感道具或记忆</t>
+    <t>填写掉落的知交好感道具ID或物件ID</t>
+  </si>
+  <si>
+    <t>表示追忆掉落的知交好感道具或物件</t>
   </si>
   <si>
     <t>解锁状态</t>
@@ -958,9 +961,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1000,6 +1003,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1013,30 +1023,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,6 +1040,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1058,17 +1077,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1096,30 +1108,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1135,11 +1131,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1172,7 +1175,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,19 +1205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,19 +1223,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,49 +1247,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,13 +1271,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,25 +1319,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,19 +1343,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,24 +1371,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1420,6 +1410,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1444,13 +1443,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1471,10 +1474,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1483,137 +1486,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1635,20 +1638,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1731,15 +1725,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1756,7 +1750,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2066925" y="17535525"/>
+          <a:off x="2057400" y="17583150"/>
           <a:ext cx="9791700" cy="4248150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5987,7 +5981,7 @@
   <sheetPr/>
   <dimension ref="B3:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E4"/>
     </sheetView>
   </sheetViews>
@@ -6054,8 +6048,8 @@
   <sheetPr/>
   <dimension ref="B3:Q197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H156" sqref="H156"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -6235,42 +6229,45 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="5:8">
+    <row r="33" spans="4:8">
+      <c r="D33" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E33" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="5:8">
       <c r="E34" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="5:8">
       <c r="E35" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="5:8">
       <c r="E36" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -6293,7 +6290,7 @@
     </row>
     <row r="44" spans="5:5">
       <c r="E44" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="4:5">
@@ -6301,122 +6298,122 @@
         <v>2</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="5:5">
       <c r="E47" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="13:13">
-      <c r="M48" s="9"/>
+      <c r="M48" s="7"/>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" s="1">
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="7:11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="7:13">
       <c r="G52" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="7:11">
+      <c r="L52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="7:13">
       <c r="G53" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H53" s="3">
         <v>8</v>
       </c>
-      <c r="J53" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="7:11">
+      <c r="L53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="7:13">
       <c r="G54" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H54" s="3">
         <v>8</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="7:11">
+      <c r="L54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="7:13">
       <c r="G55" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H55" s="3">
         <v>6</v>
       </c>
-      <c r="J55" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="7:11">
+      <c r="L55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="7:13">
       <c r="G56" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H56" s="3">
         <v>10</v>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="7:11">
+      <c r="L56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="7:13">
       <c r="G57" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H57" s="3">
         <v>10</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="7:11">
+      <c r="L57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="7:13">
       <c r="G58" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H58" s="3">
         <v>14</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K58" s="3"/>
+      <c r="L58" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M58" s="3"/>
     </row>
     <row r="59" spans="7:8">
       <c r="G59" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H59" s="3">
         <v>20</v>
@@ -6428,7 +6425,7 @@
     </row>
     <row r="61" spans="7:8">
       <c r="G61" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H61" s="3">
         <f>SUM(H53:H59)/7</f>
@@ -6444,106 +6441,106 @@
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="7:7">
       <c r="G65" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="7:7">
       <c r="G66" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="7:11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="7:13">
       <c r="G67" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J67" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="7:11">
+      <c r="L67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="7:13">
       <c r="G68" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H68" s="3">
         <v>6</v>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="7:11">
+      <c r="L68" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="7:13">
       <c r="G69" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H69" s="3">
         <v>6</v>
       </c>
-      <c r="J69" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="7:11">
+      <c r="L69" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="7:13">
       <c r="G70" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H70" s="3">
         <v>8</v>
       </c>
-      <c r="J70" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="7:11">
+      <c r="L70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="7:13">
       <c r="G71" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H71" s="3">
         <v>10</v>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="7:11">
+      <c r="L71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="7:13">
       <c r="G72" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H72" s="3">
         <v>10</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="7:11">
+      <c r="L72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="7:13">
       <c r="G73" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H73" s="3">
         <v>20</v>
       </c>
-      <c r="J73" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K73" s="3"/>
+      <c r="L73" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M73" s="3"/>
     </row>
     <row r="74" spans="7:8">
       <c r="G74" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H74" s="3">
         <v>14</v>
@@ -6555,7 +6552,7 @@
     </row>
     <row r="76" spans="7:8">
       <c r="G76" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H76" s="1">
         <f>SUM(H68:H74)/7</f>
@@ -6567,106 +6564,106 @@
         <v>3</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="7:7">
       <c r="G80" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="7:7">
       <c r="G81" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="7:11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="7:13">
       <c r="G82" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J82" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="7:11">
+      <c r="L82" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="7:13">
       <c r="G83" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H83" s="3">
         <v>6</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="7:11">
+      <c r="L83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="7:13">
       <c r="G84" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H84" s="3">
         <v>6</v>
       </c>
-      <c r="J84" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="7:11">
+      <c r="L84" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="7:13">
       <c r="G85" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H85" s="3">
         <v>8</v>
       </c>
-      <c r="J85" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="7:11">
+      <c r="L85" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="7:13">
       <c r="G86" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H86" s="3">
         <v>10</v>
       </c>
-      <c r="J86" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="7:11">
+      <c r="L86" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="7:13">
       <c r="G87" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H87" s="3">
         <v>14</v>
       </c>
-      <c r="J87" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="7:11">
+      <c r="L87" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="7:13">
       <c r="G88" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H88" s="3">
         <v>20</v>
       </c>
-      <c r="J88" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K88" s="3"/>
+      <c r="L88" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M88" s="3"/>
     </row>
     <row r="90" spans="7:8">
       <c r="G90" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H90" s="1">
         <f>SUM(H83:H88)/6</f>
@@ -6686,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="4:5">
@@ -6694,7 +6691,7 @@
         <v>2</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="4:5">
@@ -6702,7 +6699,7 @@
         <v>3</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="5:11">
@@ -6713,10 +6710,10 @@
         <v>28</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="5:11">
@@ -6727,10 +6724,10 @@
         <v>30</v>
       </c>
       <c r="G105" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K105" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="108" spans="6:6">
@@ -6740,27 +6737,27 @@
     </row>
     <row r="109" spans="6:6">
       <c r="F109" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="6:6">
       <c r="F110" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="6:6">
       <c r="F111" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="6:6">
       <c r="F112" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="6:6">
       <c r="F113" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="149" spans="3:4">
@@ -6773,104 +6770,104 @@
     </row>
     <row r="150" spans="5:5">
       <c r="E150" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="151" spans="5:5">
       <c r="E151" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="152" spans="5:5">
       <c r="E152" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="154" spans="5:7">
-      <c r="E154" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F154" s="11" t="s">
+      <c r="E154" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G154" s="11" t="s">
+      <c r="F154" s="2" t="s">
         <v>110</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G155" s="8">
+        <v>113</v>
+      </c>
+      <c r="G155" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G156" s="8">
+        <v>115</v>
+      </c>
+      <c r="G156" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G157" s="8">
+        <v>117</v>
+      </c>
+      <c r="G157" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G158" s="8">
+        <v>119</v>
+      </c>
+      <c r="G158" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G159" s="8">
+        <v>121</v>
+      </c>
+      <c r="G159" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G160" s="8">
+        <v>123</v>
+      </c>
+      <c r="G160" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="161" spans="5:7">
       <c r="E161" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G161" s="8">
+        <v>124</v>
+      </c>
+      <c r="G161" s="3">
         <v>3</v>
       </c>
     </row>
@@ -6887,30 +6884,30 @@
         <v>1</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="167" spans="5:17">
-      <c r="E167" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F167" s="12" t="s">
+      <c r="E167" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G167" s="12" t="s">
+      <c r="F167" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H167" s="12" t="s">
+      <c r="G167" s="9" t="s">
         <v>128</v>
       </c>
+      <c r="H167" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="I167" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
       <c r="M167" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -6919,17 +6916,17 @@
     </row>
     <row r="168" spans="5:17">
       <c r="E168" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="M168" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N168" s="5"/>
       <c r="O168" s="5"/>
@@ -6938,19 +6935,19 @@
     </row>
     <row r="169" spans="5:17">
       <c r="E169" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
       <c r="M169" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N169" s="5"/>
       <c r="O169" s="5"/>
@@ -6959,17 +6956,17 @@
     </row>
     <row r="170" spans="5:17">
       <c r="E170" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
       <c r="M170" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N170" s="5"/>
       <c r="O170" s="5"/>
@@ -6978,19 +6975,19 @@
     </row>
     <row r="171" spans="5:17">
       <c r="E171" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
       <c r="M171" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N171" s="5"/>
       <c r="O171" s="5"/>
@@ -6999,19 +6996,19 @@
     </row>
     <row r="172" spans="5:17">
       <c r="E172" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
       <c r="M172" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N172" s="5"/>
       <c r="O172" s="5"/>
@@ -7058,7 +7055,7 @@
         <v>2</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
@@ -7071,70 +7068,70 @@
       <c r="Q176" s="3"/>
     </row>
     <row r="177" spans="5:17">
-      <c r="E177" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F177" s="12" t="s">
+      <c r="E177" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G177" s="12" t="s">
+      <c r="F177" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H177" s="12" t="s">
+      <c r="G177" s="9" t="s">
         <v>128</v>
       </c>
+      <c r="H177" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="I177" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
       <c r="Q177" s="2"/>
     </row>
-    <row r="178" s="10" customFormat="1" spans="5:17">
+    <row r="178" s="8" customFormat="1" spans="5:17">
       <c r="E178" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G178" s="13"/>
-      <c r="H178" s="13"/>
-      <c r="I178" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="J178" s="14"/>
-      <c r="K178" s="14"/>
-      <c r="L178" s="14"/>
-      <c r="M178" s="15" t="s">
+      <c r="G178" s="10"/>
+      <c r="H178" s="10"/>
+      <c r="I178" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="N178" s="16"/>
-      <c r="O178" s="16"/>
-      <c r="P178" s="16"/>
-      <c r="Q178" s="16"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="11"/>
+      <c r="L178" s="11"/>
+      <c r="M178" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="N178" s="13"/>
+      <c r="O178" s="13"/>
+      <c r="P178" s="13"/>
+      <c r="Q178" s="13"/>
     </row>
     <row r="179" spans="5:17">
       <c r="E179" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
       <c r="M179" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N179" s="5"/>
       <c r="O179" s="5"/>
@@ -7143,19 +7140,19 @@
     </row>
     <row r="180" spans="5:17">
       <c r="E180" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
       <c r="M180" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N180" s="5"/>
       <c r="O180" s="5"/>
@@ -7164,19 +7161,19 @@
     </row>
     <row r="181" ht="26" customHeight="1" spans="5:17">
       <c r="E181" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
       <c r="M181" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N181" s="5"/>
       <c r="O181" s="5"/>
@@ -7201,30 +7198,30 @@
         <v>3</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="186" spans="5:17">
-      <c r="E186" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F186" s="12" t="s">
+      <c r="E186" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G186" s="12" t="s">
+      <c r="F186" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H186" s="12" t="s">
+      <c r="G186" s="9" t="s">
         <v>128</v>
       </c>
+      <c r="H186" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="I186" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
       <c r="M186" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
@@ -7233,19 +7230,19 @@
     </row>
     <row r="187" spans="5:17">
       <c r="E187" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
       <c r="M187" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N187" s="5"/>
       <c r="O187" s="5"/>
@@ -7254,19 +7251,19 @@
     </row>
     <row r="188" spans="5:17">
       <c r="E188" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
       <c r="M188" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N188" s="5"/>
       <c r="O188" s="5"/>
@@ -7275,19 +7272,19 @@
     </row>
     <row r="189" ht="31" customHeight="1" spans="5:17">
       <c r="E189" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
       <c r="M189" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N189" s="5"/>
       <c r="O189" s="5"/>
@@ -7296,19 +7293,19 @@
     </row>
     <row r="190" spans="5:17">
       <c r="E190" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
       <c r="M190" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N190" s="5"/>
       <c r="O190" s="5"/>
@@ -7320,30 +7317,30 @@
         <v>4</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="194" spans="5:17">
-      <c r="E194" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F194" s="12" t="s">
+      <c r="E194" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G194" s="12" t="s">
+      <c r="F194" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H194" s="12" t="s">
+      <c r="G194" s="9" t="s">
         <v>128</v>
       </c>
+      <c r="H194" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="I194" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
       <c r="M194" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
@@ -7352,19 +7349,19 @@
     </row>
     <row r="195" ht="34" customHeight="1" spans="5:17">
       <c r="E195" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
       <c r="M195" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N195" s="3"/>
       <c r="O195" s="3"/>
@@ -7373,19 +7370,19 @@
     </row>
     <row r="196" spans="5:17">
       <c r="E196" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
       <c r="M196" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N196" s="3"/>
       <c r="O196" s="3"/>
@@ -7394,19 +7391,19 @@
     </row>
     <row r="197" spans="5:17">
       <c r="E197" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
       <c r="M197" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N197" s="3"/>
       <c r="O197" s="3"/>
@@ -7422,27 +7419,27 @@
     <mergeCell ref="F34:H34"/>
     <mergeCell ref="F35:H35"/>
     <mergeCell ref="F36:H36"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="L88:M88"/>
     <mergeCell ref="I167:L167"/>
     <mergeCell ref="M167:Q167"/>
     <mergeCell ref="I168:L168"/>
@@ -7503,8 +7500,8 @@
   <sheetPr/>
   <dimension ref="B2:S206"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="B116" workbookViewId="0">
+      <selection activeCell="Q175" sqref="Q175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7521,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="3:19">
@@ -7533,24 +7530,24 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1" spans="3:18">
@@ -7565,15 +7562,15 @@
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -7954,7 +7951,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -7973,24 +7970,24 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="10:19">
@@ -7998,13 +7995,13 @@
         <v>1</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
@@ -8022,7 +8019,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
@@ -8033,10 +8030,10 @@
         <v>3</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -8050,13 +8047,13 @@
         <v>4</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
@@ -8067,13 +8064,13 @@
         <v>5</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
@@ -8084,10 +8081,10 @@
         <v>6</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -8111,29 +8108,29 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="10:19">
       <c r="J84" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
       <c r="S84" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="10:19">
@@ -8141,10 +8138,10 @@
         <v>1</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
@@ -8159,13 +8156,13 @@
         <v>2</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
@@ -8177,15 +8174,15 @@
         <v>3</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
@@ -8197,65 +8194,65 @@
         <v>4</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
-      <c r="S88" s="9"/>
+      <c r="S88" s="7"/>
     </row>
     <row r="89" spans="15:15">
       <c r="O89" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="10:14">
-      <c r="J90" s="7">
+      <c r="J90" s="3">
         <v>5</v>
       </c>
-      <c r="K90" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="L90" s="8" t="s">
+      <c r="K90" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
+      <c r="L90" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
     </row>
     <row r="121" spans="2:3">
       <c r="B121">
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="10:19">
       <c r="J122" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
       <c r="S122" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123" spans="10:19">
@@ -8263,10 +8260,10 @@
         <v>1</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
@@ -8281,13 +8278,13 @@
         <v>2</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
@@ -8298,10 +8295,10 @@
         <v>3</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
@@ -8320,24 +8317,24 @@
     </row>
     <row r="162" spans="10:19">
       <c r="J162" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
       <c r="O162" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" s="2"/>
       <c r="R162" s="2"/>
       <c r="S162" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="163" spans="10:19">
@@ -8345,13 +8342,13 @@
         <v>1</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L163" s="3"/>
       <c r="M163" s="3"/>
       <c r="N163" s="3"/>
       <c r="O163" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P163" s="5"/>
       <c r="Q163" s="5"/>
@@ -8363,13 +8360,13 @@
         <v>2</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
       <c r="N164" s="3"/>
       <c r="O164" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P164" s="5"/>
       <c r="Q164" s="5"/>
@@ -8380,13 +8377,13 @@
         <v>3</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
       <c r="N165" s="3"/>
       <c r="O165" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P165" s="5"/>
       <c r="Q165" s="5"/>
@@ -8397,13 +8394,13 @@
         <v>4</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
       <c r="N166" s="3"/>
       <c r="O166" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P166" s="5"/>
       <c r="Q166" s="5"/>
@@ -8414,13 +8411,13 @@
         <v>5</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
       <c r="O167" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P167" s="5"/>
       <c r="Q167" s="5"/>
@@ -8431,13 +8428,13 @@
         <v>6</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
       <c r="N168" s="3"/>
       <c r="O168" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P168" s="5"/>
       <c r="Q168" s="5"/>
@@ -8448,13 +8445,13 @@
         <v>7</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
       <c r="N169" s="3"/>
       <c r="O169" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P169" s="5"/>
       <c r="Q169" s="5"/>
@@ -8465,13 +8462,13 @@
         <v>8</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
       <c r="N170" s="3"/>
       <c r="O170" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P170" s="5"/>
       <c r="Q170" s="5"/>
@@ -8482,10 +8479,10 @@
         <v>9</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M171" s="3"/>
       <c r="N171" s="3"/>
@@ -8496,47 +8493,47 @@
     </row>
     <row r="174" spans="10:11">
       <c r="J174" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="175" spans="11:11">
       <c r="K175" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="176" spans="11:11">
       <c r="K176" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="177" spans="11:11">
       <c r="K177" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="203" spans="10:19">
       <c r="J203" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K203" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L203" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
       <c r="O203" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" s="2"/>
       <c r="R203" s="2"/>
       <c r="S203" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="204" spans="10:19">
@@ -8544,13 +8541,13 @@
         <v>1</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
       <c r="N204" s="3"/>
       <c r="O204" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P204" s="5"/>
       <c r="Q204" s="5"/>
@@ -8562,30 +8559,30 @@
         <v>2</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L205" s="3"/>
       <c r="M205" s="3"/>
       <c r="N205" s="3"/>
       <c r="O205" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P205" s="5"/>
       <c r="Q205" s="5"/>
       <c r="R205" s="5"/>
     </row>
     <row r="206" spans="10:14">
-      <c r="J206" s="7">
+      <c r="J206" s="3">
         <v>3</v>
       </c>
-      <c r="K206" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="L206" s="7" t="s">
+      <c r="K206" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="M206" s="7"/>
-      <c r="N206" s="7"/>
+      <c r="L206" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="64">
